--- a/Productbook.xlsx
+++ b/Productbook.xlsx
@@ -12,42 +12,339 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>BBEN Laptop Windows 10 Intel Kabylake i7 7700HQ Nvidia GeForce GTX1060 WiFi BT4.0 RGB Backlit Keyboard 15.6'' IPS Game Computer</t>
-  </si>
-  <si>
-    <t>BBEN-Laptop-Windows-10-Intel-Kabylake-i7-7700HQ-Nvidia-GeForce-GTX1060-WiFi-BT4-0-RGB-Backlit-Keyboard-15-6---IPS-Game-Computer</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Processor Main Frequency:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="2.80GHz"&gt;2.80GHz&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Display Ratio:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="16:9"&gt;16:9&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Graphics Card Model:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GTX1060"&gt;GTX1060&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Port:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="RJ-45,3.5 mm Combo Audio Jack,2*USB3.0,2*USB2.0,Card Reader"&gt;RJ-45,3.5 mm Combo Audio Jack,2*USB3.0,2*USB2.0,Card Reader&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Operating System:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Windows 10"&gt;Windows 10&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Weight:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="2.5kg"&gt;2.5kg&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Body Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Processor Core:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Quad Core"&gt;Quad Core&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Average Battery Life(in hours):&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="4 cells 4000mAh Li--Polymer"&gt;4 cells 4000mAh Li--Polymer&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Backlit keyboard,Bluetooth,Camera"&gt;Backlit keyboard,Bluetooth,Camera&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Display resolution:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="1920x1080"&gt;1920x1080&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Panel Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="IPS"&gt;IPS&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Display Size:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="15.6&amp;quot;"&gt;15.6"&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Graphics Card Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Dedicated Card"&gt;Dedicated Card&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;WLAN:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="WiFi 802.11 ac"&gt;WiFi 802.11 ac&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Video Memory Capacity:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="6GB"&gt;6GB&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Bben"&gt;Bben&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Above 25mm"&gt;Above 25mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Laptop"&gt;Laptop&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Optical Drive Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="None"&gt;None&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="BBEN-G16"&gt;BBEN-G16&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Video Memory Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GDDR5"&gt;GDDR5&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Graphics Card Brand:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Nvidia"&gt;Nvidia&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Hard Drive Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="SSD+HDD"&gt;SSD+HDD&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;RAM:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Other"&gt;Other&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dimensions (WxHxD):&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="390 x 271.2 x 29.9mm"&gt;390 x 271.2 x 29.9mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Hard Drive Capacity:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="without"&gt;without&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/HTB1YmXnXfNNTKJjSspcq6z4KVXal/BBEN-Laptop-Windows-10-Intel-Kabylake-i7-7700HQ-Nvidia-GeForce-GTX1060-WiFi-BT4-0-RGB-Backlit.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/HTB1L_9rgyAKL1JjSZFoq6ygCFXaL/BBEN-Laptop-Windows-10-Intel-Kabylake-i7-7700HQ-Nvidia-GeForce-GTX1060-WiFi-BT4-0-RGB-Backlit.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/HTB1PpRDf.F7MKJjSZFLq6AMBVXaD/BBEN-Laptop-Windows-10-Intel-Kabylake-i7-7700HQ-Nvidia-GeForce-GTX1060-WiFi-BT4-0-RGB-Backlit.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>Bben Notebook Windows 10 Intel Core i7-7700HQ quad Core 17.3 inch IPS Screen 32GB DDR4 RAM M.2 512GB SSD 2TB HDD Laptop</t>
-  </si>
-  <si>
-    <t>Bben-Notebook-Windows-10-Intel-Core-i7-7700HQ-quad-Core-17-3-inch-IPS-Screen-32GB-DDR4-RAM-M-2-512GB-SSD-2TB-HDD-Laptop</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Processor Main Frequency:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="2.80GHz"&gt;2.80GHz&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Display Ratio:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="16:9"&gt;16:9&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Graphics Card Model:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GTX1060"&gt;GTX1060&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Port:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="RJ-45,3.5 mm Combo Audio Jack,2*USB3.0,2*USB2.0,Card Reader"&gt;RJ-45,3.5 mm Combo Audio Jack,2*USB3.0,2*USB2.0,Card Reader&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Operating System:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Windows 10"&gt;Windows 10&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;RAM:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="32GB"&gt;32GB&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Display Size:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="17.3&amp;quot;"&gt;17.3"&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dimensions (WxHxD):&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="423 X 289 X 35mm"&gt;423 X 289 X 35mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Processor Core:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Quad Core"&gt;Quad Core&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Average Battery Life(in hours):&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="4 cells 4000mAh Li--Polymer"&gt;4 cells 4000mAh Li--Polymer&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Backlit keyboard,Bluetooth,Camera"&gt;Backlit keyboard,Bluetooth,Camera&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Display resolution:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="1920x1080"&gt;1920x1080&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Panel Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="IPS"&gt;IPS&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Max Boost Frequency (Multi-Core):&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="-"&gt;-&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Graphics Card Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Dedicated Card"&gt;Dedicated Card&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;WLAN:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="WiFi 802.11 ac"&gt;WiFi 802.11 ac&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Video Memory Capacity:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="6GB"&gt;6GB&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Bben"&gt;Bben&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Above 25mm"&gt;Above 25mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Laptop"&gt;Laptop&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Optical Drive Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="None"&gt;None&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Max Boost Frequency (Single Core):&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="-"&gt;-&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="BBEN-G17"&gt;BBEN-G17&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Video Memory Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GDDR5"&gt;GDDR5&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Graphics Card Brand:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Nvidia"&gt;Nvidia&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Hard Drive Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="SSD+HDD"&gt;SSD+HDD&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Hard Drive Capacity:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="512GB+2TB"&gt;512GB+2TB&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Weight:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="3.6kg"&gt;3.6kg&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Body Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="PC+ABS"&gt;PC+ABS&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Max Turbo Frequency:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="3.8GHz"&gt;3.8GHz&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Resolution:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="1920x1080 FHD"&gt;1920x1080 FHD&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pro win10 activated:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="with license key"&gt;with license key&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;home win10 activated:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="with license key"&gt;with license key&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;preinstalled win10:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="no license key , not activate"&gt;no license key , not activate&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/HTB1T9EwafJNTKJjSspoq6A6mpXar/Bben-Notebook-Windows-10-Intel-Core-i7-7700HQ-quad-Core-17-3-inch-IPS-Screen-32GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/HTB1frooXKKAUKJjSZFzq6xdQFXaj/Bben-Notebook-Windows-10-Intel-Core-i7-7700HQ-quad-Core-17-3-inch-IPS-Screen-32GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/HTB15Idbih3IL1JjSZPfq6ArUVXa6/Bben-Notebook-Windows-10-Intel-Core-i7-7700HQ-quad-Core-17-3-inch-IPS-Screen-32GB.jpg_Q90.jpg_.webp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
+  <si>
+    <t>Men Automatic Mechanical Speed Racing Luminous Ceramic Black Leather Sport Watch</t>
+  </si>
+  <si>
+    <t>Men-Automatic-Mechanical-Speed-Racing-Luminous-Ceramic-Black-Leather-Sport-Watch</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GIOIO"&gt;GIOIO&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="3Bar"&gt;3Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20cminch"&gt;20cminch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Bracelet Clasp"&gt;Bracelet Clasp&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Automatic Self-Wind"&gt;Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No package"&gt;No package&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Luminous"&gt;Luminous&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="40mm"&gt;40mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Wristwatch"&gt;Wristwatch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sa57b099a6bc1463d9e7bf8159000be29s/Men-Automatic-Mechanical-Speed-Racing-Luminous-Ceramic-Black-Leather-Sport-Watch.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>44mm High Quality Mens Mechanical Automatic Watch Black Blue Green Stainless Steel Leather Rubber Advanced Luminous</t>
+  </si>
+  <si>
+    <t>44mm-High-Quality-Mens-Mechanical-Automatic-Watch-Black-Blue-Green-Stainless-Steel-Leather-Rubber-Advanced-Luminous</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GIOIO"&gt;GIOIO&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="3Bar"&gt;3Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Leather"&gt;Leather&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="22inch"&gt;22inch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Buckle"&gt;Buckle&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Automatic Self-Wind"&gt;Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No package"&gt;No package&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Luminous"&gt;Luminous&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="44mm"&gt;44mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Wristwatch"&gt;Wristwatch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Hardlex"&gt;Hardlex&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sc66e780c24614b479b7a20cc0efc8102v/44mm-High-Quality-Mens-Mechanical-Automatic-Watch-Black-Blue-Green-Stainless-Steel-Leather-Rubber-Advanced-Luminous.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>45mm High Quality Mens Automatic Mechanical Watch Grey Black Stainless Steel Luminous Wristwatch Sapphire Glass</t>
+  </si>
+  <si>
+    <t>45mm-High-Quality-Mens-Automatic-Mechanical-Watch-Grey-Black-Stainless-Steel-Luminous-Wristwatch-Sapphire-Glass</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GIOIO"&gt;GIOIO&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="3Bar"&gt;3Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="22inch"&gt;22inch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Buckle"&gt;Buckle&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Automatic Self-Wind"&gt;Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No package"&gt;No package&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Luminous"&gt;Luminous&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="45mm"&gt;45mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Square"&gt;Square&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Wristwatch"&gt;Wristwatch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S2f7c21384c964b38abf44c22f1a4aceaW/45mm-High-Quality-Mens-Automatic-Mechanical-Watch-Grey-Black-Stainless-Steel-Luminous-Wristwatch-Sapphire-Glass.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>High Quality Mens Automatic Mechanical Watch Black Carbon Fiber Red Rubber Strap</t>
+  </si>
+  <si>
+    <t>High-Quality-Mens-Automatic-Mechanical-Watch-Black-Carbon-Fiber-Red-Rubber-Strap</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GIOIO"&gt;GIOIO&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="3Bar"&gt;3Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Rubber"&gt;Rubber&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="22inch"&gt;22inch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Carbon Fiber"&gt;Carbon Fiber&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Folding Clasp with Safety"&gt;Folding Clasp with Safety&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Automatic Self-Wind"&gt;Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No package"&gt;No package&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Luminous"&gt;Luminous&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="43mm"&gt;43mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Tonneau"&gt;Tonneau&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Wristwatch"&gt;Wristwatch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sfb557e17331540fb81bad2adb1978f24I/High-Quality-Mens-Automatic-Mechanical-Watch-Black-Carbon-Fiber-Red-Rubber-Strap.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>Fashion Women Watches Luxury Leather Flower Rhinestone Watch for Women Ladies Quartz Wrist Watch with Bracelet Set Reloj Mujer</t>
+  </si>
+  <si>
+    <t>Fashion-Women-Watches-Luxury-Leather-Flower-Rhinestone-Watch-for-Women-Ladies-Quartz-Wrist-Watch-with-Bracelet-Set-Reloj-Mujer</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="JBAILI"&gt;JBAILI&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No Waterproof"&gt;No Waterproof&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Quartz"&gt;Quartz&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Buckle"&gt;Buckle&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Glass"&gt;Glass&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="10mm"&gt;10mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No package"&gt;No package&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Leather"&gt;Leather&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="13mm"&gt;13mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Water Resistant"&gt;Water Resistant&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="24cm"&gt;24cm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="32mm"&gt;32mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Certification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="NONE"&gt;NONE&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="women watch"&gt;women watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Women's Watch"&gt;Women's Watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Products:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Women's Wrist Watch"&gt;Women's Wrist Watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Women Watch:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="women's quartz watch"&gt;women's quartz watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clock Women:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Zegarek Damski"&gt;Zegarek Damski&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Ladies Watch:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Relojes Para Mujer"&gt;Relojes Para Mujer&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Watch Women:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Bayan Saat"&gt;Bayan Saat&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Hodinky:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="wrist watches for women"&gt;wrist watches for women&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Stytle:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="montre femme"&gt;montre femme&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Gift:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Horloges Vrouwen"&gt;Horloges Vrouwen&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S068b39dff11546889627f91133a2c9387/Fashion-Women-Watches-Luxury-Leather-Flower-Rhinestone-Watch-for-Women-Ladies-Quartz-Wrist-Watch-with-Bracelet.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sb993d3af5381435690b6d9e2d0dad7b5x/Fashion-Women-Watches-Luxury-Leather-Flower-Rhinestone-Watch-for-Women-Ladies-Quartz-Wrist-Watch-with-Bracelet.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S6e115538b02c4fde8625b245519a6317j/Fashion-Women-Watches-Luxury-Leather-Flower-Rhinestone-Watch-for-Women-Ladies-Quartz-Wrist-Watch-with-Bracelet.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>NH35A 200m Diver Men's Watch 39mm Automatic Mechanical Wristwatch Waterproof Date Sapphire Crystal Leather Strap Tandorio</t>
+  </si>
+  <si>
+    <t>NH35A-200m-Diver-Men-s-Watch-39mm-Automatic-Mechanical-Wristwatch-Waterproof-Date-Sapphire-Crystal-Leather-Strap-Tandorio</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="tandorio"&gt;tandorio&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20Bar"&gt;20Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="DRESS"&gt;DRESS&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="22cm"&gt;22cm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Buckle"&gt;Buckle&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Hand Wind,Automatic Self-Wind"&gt;Mechanical Hand Wind,Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="12.2mm"&gt;12.2mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No package"&gt;No package&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Leather"&gt;Leather&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Luminous,Auto Date,Complete Calendar,Diver,Water Resistant,Swim,luminous hands"&gt;Luminous,Auto Date,Complete Calendar,Diver,Water Resistant,Swim,luminous hands&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20mm"&gt;20mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="39mm"&gt;39mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="nh35"&gt;nh35&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/He2bc8eef9c164fcb872849f113194b1bE/NH35A-200m-Diver-Men-s-Watch-39mm-Automatic-Mechanical-Wristwatch-Waterproof-Date-Sapphire-Crystal-Leather-Strap.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/H34331742ab8d456ca95b9309aa6001b2n/NH35A-200m-Diver-Men-s-Watch-39mm-Automatic-Mechanical-Wristwatch-Waterproof-Date-Sapphire-Crystal-Leather-Strap.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Ha884429e0db6423180618bbcd0171c997/NH35A-200m-Diver-Men-s-Watch-39mm-Automatic-Mechanical-Wristwatch-Waterproof-Date-Sapphire-Crystal-Leather-Strap.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>BOBO BIRD Wooden Automatic Mechanical Watch Men New Top Luxury Wristwatch Fashion Luminous Clock Great Gift Wood Box Custom Logo</t>
+  </si>
+  <si>
+    <t>BOBO-BIRD-Wooden-Automatic-Mechanical-Watch-Men-New-Top-Luxury-Wristwatch-Fashion-Luminous-Clock-Great-Gift-Wood-Box-Custom-Logo</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="BOBO BIRD"&gt;BOBO BIRD&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="3Bar"&gt;3Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Wooden"&gt;Wooden&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20cm"&gt;20cm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Push Button Hidden Clasp"&gt;Push Button Hidden Clasp&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Hand Wind,Automatic Self-Wind"&gt;Mechanical Hand Wind,Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="13.2mm"&gt;13.2mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Wood"&gt;Wood&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Luminous,Water Resistant"&gt;Luminous,Water Resistant&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="21.7mm"&gt;21.7mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="44mm"&gt;44mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GT114"&gt;GT114&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Hardlex"&gt;Hardlex&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Gender:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Men"&gt;Men&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Color:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Blue, Yellow, Silver, Black etc"&gt;Blue, Yellow, Silver, Black etc&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion Mechanical Watch"&gt;Fashion Mechanical Watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dropshipping:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Support Dropshipping"&gt;Support Dropshipping&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Personalized customize:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Support Personalized Logo/name engraving"&gt;Support Personalized Logo/name engraving&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Watch box:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Natural Wooden Gift watch box"&gt;Natural Wooden Gift watch box&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;3 ATM Water resistance:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Washing hand, water drop and rain are available"&gt;Washing hand, water drop and rain are available&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Great gift items for:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Birthday, anniversary, commemoration, graduation gift"&gt;Birthday, anniversary, commemoration, graduation gift&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;occasion:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Party, Birthday, anniversary, graduation gift"&gt;Party, Birthday, anniversary, graduation gift&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S3020d2dc39624984860101527c26cd9b8/BOBO-BIRD-Wooden-Automatic-Mechanical-Watch-Men-New-Top-Luxury-Wristwatch-Fashion-Luminous-Clock-Great-Gift.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S2b8a1e9278994b2888f3073df36b9b0ef/BOBO-BIRD-Wooden-Automatic-Mechanical-Watch-Men-New-Top-Luxury-Wristwatch-Fashion-Luminous-Clock-Great-Gift.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S979a4000eb5d450c8baaee23f58e9207c/BOBO-BIRD-Wooden-Automatic-Mechanical-Watch-Men-New-Top-Luxury-Wristwatch-Fashion-Luminous-Clock-Great-Gift.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>2022 New Men's Watch Full Function Racing Chrono Waterproof Diving Mechanical Watch Multifunctional Automatic Steel AAA Watch</t>
+  </si>
+  <si>
+    <t>2022-New-Men-s-Watch-Full-Function-Racing-Chrono-Waterproof-Diving-Mechanical-Watch-Multifunctional-Automatic-Steel-AAA-Watch</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="UMQ"&gt;UMQ&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="3Bar"&gt;3Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Tungsten Steel"&gt;Tungsten Steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="28cm"&gt;28cm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Tungsten Steel"&gt;Tungsten Steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Bracelet Clasp"&gt;Bracelet Clasp&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Automatic Self-Wind"&gt;Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No package"&gt;No package&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Auto Date"&gt;Auto Date&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="50mm"&gt;50mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Square"&gt;Square&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Hardlex"&gt;Hardlex&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sc7f67a779ccd4f7194fb8debe5fa7064E/2022-New-Men-s-Watch-Full-Function-Racing-Chrono-Waterproof-Diving-Mechanical-Watch-Multifunctional-Automatic-Steel.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S309e4ac5e6d44de387672f1dcd572a04a/2022-New-Men-s-Watch-Full-Function-Racing-Chrono-Waterproof-Diving-Mechanical-Watch-Multifunctional-Automatic-Steel.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S6cd627bcf7764920a818bba4cb2fd6ffN/2022-New-Men-s-Watch-Full-Function-Racing-Chrono-Waterproof-Diving-Mechanical-Watch-Multifunctional-Automatic-Steel.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>62mas White Watch with s logo Men's and women's mechanical watches 36/39mm sapphire glass with nh35 movement 200</t>
+  </si>
+  <si>
+    <t>62mas-White-Watch-with-s-logo-Men-s-and-women-s-mechanical-watches-36-39mm-sapphire-glass-with-nh35-movement-200</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="AETEEY"&gt;AETEEY&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="5Bar"&gt;5Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="simple"&gt;simple&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="0inch"&gt;0inch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Bracelet Clasp"&gt;Bracelet Clasp&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Automatic Self-Wind"&gt;Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S08274f7b9aac46b4a284220195a27a057/62mas-White-Watch-with-s-logo-Men-s-and-women-s-mechanical-watches-36-39mm-sapphire.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>2022 PAGANI Design New 40mm Men Luxury Automatic Mechanical Watches Men NH35A Stainless Steel Waterproof Watch Relogio Masculino</t>
+  </si>
+  <si>
+    <t>2022-PAGANI-Design-New-40mm-Men-Luxury-Automatic-Mechanical-Watches-Men-NH35A-Stainless-Steel-Waterproof-Watch-Relogio-Masculino</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="PAGANI DESIGN"&gt;PAGANI DESIGN&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="10Bar"&gt;10Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Business"&gt;Business&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="22cm"&gt;22cm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Bracelet Clasp"&gt;Bracelet Clasp&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Hand Wind,Automatic Self-Wind"&gt;Mechanical Hand Wind,Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="12mm"&gt;12mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Paper"&gt;Paper&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Back Light,Shock Resistant,Auto Date,Complete Calendar,Diver,Water Resistant,Swim,Week Display,luminous hands,Anti-magnetic"&gt;Back Light,Shock Resistant,Auto Date,Complete Calendar,Diver,Water Resistant,Swim,Week Display,luminous hands,Anti-magnetic&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20mm"&gt;20mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="40mm"&gt;40mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="PD 1661 PAGANI DESIGN watch for men  Steeldive"&gt;PD 1661 PAGANI DESIGN watch for men  Steeldive&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Factory supply:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Support dropshipping"&gt;Support dropshipping&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;saat:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="erkek kol saati"&gt;erkek kol saati&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;reloj hombre:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="montre homme"&gt;montre homme&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;montre PAGANI DESIGN:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Waterproof Wristwatches,"&gt;Waterproof Wristwatches,&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;mens watches top luxury:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical watch"&gt;Mechanical watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Men watches 2022:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="relogio masculino"&gt;relogio masculino&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;watch for men:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="automatic watch"&gt;automatic watch&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S8e74a670db62467da132b5848afa0fc0I/2022-PAGANI-Design-New-40mm-Men-Luxury-Automatic-Mechanical-Watches-Men-NH35A-Stainless-Steel-Waterproof-Watch.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Hfc499a9722c2452198f5073d385ef116l/2022-PAGANI-Design-New-40mm-Men-Luxury-Automatic-Mechanical-Watches-Men-NH35A-Stainless-Steel-Waterproof-Watch.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S6ec506518e4a461dbfe6223e0c29e610w/2022-PAGANI-Design-New-40mm-Men-Luxury-Automatic-Mechanical-Watches-Men-NH35A-Stainless-Steel-Waterproof-Watch.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>San Martin 39mm Pilot YN55A Fashion Simple Style Sunray Dial Military Men Automatic Mechanical Watch 20 Bar Waterproof Luminous</t>
+  </si>
+  <si>
+    <t>San-Martin-39mm-Pilot-YN55A-Fashion-Simple-Style-Sunray-Dial-Military-Men-Automatic-Mechanical-Watch-20-Bar-Waterproof-Luminous</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="San Martin"&gt;San Martin&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20Bar"&gt;20Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="simple"&gt;simple&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="7.48inch"&gt;7.48inch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Folding Clasp with Safety"&gt;Folding Clasp with Safety&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Automatic Self-Wind"&gt;Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="12mm"&gt;12mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Plastic"&gt;Plastic&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Luminous,Diver,Water Resistant,Swim,luminous hands"&gt;Luminous,Diver,Water Resistant,Swim,luminous hands&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20mm"&gt;20mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="33mm"&gt;33mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="SN030-G2"&gt;SN030-G2&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="YN55A [Automatic mechanical movement]"&gt;YN55A [Automatic mechanical movement]&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="316L Stainless Steel"&gt;316L Stainless Steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Lug to Lug:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="49 mm"&gt;49 mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Sapphire Crystal Glass:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="AR Coating"&gt;AR Coating&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Color:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sunray Green, Sunray Blue, Black"&gt;Sunray Green, Sunray Blue, Black&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Luminous:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="SLN C3 Green Light"&gt;SLN C3 Green Light&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;316L Stainless Steel Bracelet:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Female Links"&gt;Female Links&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/H02ff323811f64133a32cba4f579537a0q/San-Martin-39mm-Pilot-YN55A-Fashion-Simple-Style-Sunray-Dial-Military-Men-Automatic-Mechanical-Watch-20.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/H8d952202c2db4d8fa802506f822db5b2H/San-Martin-39mm-Pilot-YN55A-Fashion-Simple-Style-Sunray-Dial-Military-Men-Automatic-Mechanical-Watch-20.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S4fb07b4323aa40878203abede92dd768I/San-Martin-39mm-Pilot-YN55A-Fashion-Simple-Style-Sunray-Dial-Military-Men-Automatic-Mechanical-Watch-20.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>PAGANI DESIGN Water Ghost Series Classic Blue Dial Men's Luxury Automatic Watch Stainless Steel 100m Waterproof Mechanical Watch</t>
+  </si>
+  <si>
+    <t>PAGANI-DESIGN-Water-Ghost-Series-Classic-Blue-Dial-Men-s-Luxury-Automatic-Watch-Stainless-Steel-100m-Waterproof-Mechanical-Watch</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Rugum"&gt;Rugum&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="10Bar"&gt;10Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Luxury"&gt;Luxury&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="22cminch"&gt;22cminch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Folding Clasp with Safety"&gt;Folding Clasp with Safety&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Hand Wind,Automatic Self-Wind"&gt;Mechanical Hand Wind,Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="13mm"&gt;13mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Paper"&gt;Paper&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Shock Resistant,Luminous,Complete Calendar,Diver,Water Resistant,Swim,Anti-magnetic"&gt;Shock Resistant,Luminous,Complete Calendar,Diver,Water Resistant,Swim,Anti-magnetic&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20mm"&gt;20mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="43mm"&gt;43mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="PD-1639"&gt;PD-1639&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S93ab9d87e337478e8c1f056b10d5af50t/PAGANI-DESIGN-Water-Ghost-Series-Classic-Blue-Dial-Men-s-Luxury-Automatic-Watch-Stainless-Steel-100m.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S92ea748dba2840b2b0895aac220b6271b/PAGANI-DESIGN-Water-Ghost-Series-Classic-Blue-Dial-Men-s-Luxury-Automatic-Watch-Stainless-Steel-100m.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S619c817ac2ac4928ba4af00521c168d59/PAGANI-DESIGN-Water-Ghost-Series-Classic-Blue-Dial-Men-s-Luxury-Automatic-Watch-Stainless-Steel-100m.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>Men Watches 2022 Luxury Belt Watch Fashion Blu-ray Roman Watch For Man Relojes Para Hombre שעון ספורט Часы Мужские Наручные</t>
+  </si>
+  <si>
+    <t>Men-Watches-2022-Luxury-Belt-Watch-Fashion-Blu-ray-Roman-Watch-For-Man-Relojes-Para-Hombre---------------------------------</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="MUQGEW"&gt;MUQGEW&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No Waterproof"&gt;No Waterproof&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Bracelet Clasp"&gt;Bracelet Clasp&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Automatic Self-Wind"&gt;Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="as showcm"&gt;as showcm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Tungsten Steel"&gt;Tungsten Steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="None"&gt;None&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="watches for men 2022"&gt;watches for men 2022&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="as showmm"&gt;as showmm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="as showmm"&gt;as showmm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Glass"&gt;Glass&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No package"&gt;No package&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="PU"&gt;PU&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;men digital wristwatches:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="men mechanical wristwatches"&gt;men mechanical wristwatches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;relogio digital:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="digital watch"&gt;digital watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;reloj digital:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="watches mens 2022"&gt;watches mens 2022&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;watch for men:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="relogio masculino"&gt;relogio masculino&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;men watches waterproof:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="mens fashion watches"&gt;mens fashion watches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;sport watch for men:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="watches mens automatic"&gt;watches mens automatic&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;men watch :&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="reloj hombre"&gt;reloj hombre&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;montre homme:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="smart watch men"&gt;smart watch men&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;orologio uomo:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="automatic watch"&gt;automatic watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;mens watch:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="retro watch"&gt;retro watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;dropshipping:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="fast delivery"&gt;fast delivery&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;free ship:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="drop shop"&gt;drop shop&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/H13879e37a51e452e8f855d67248f016ew/Men-Watches-2022-Luxury-Belt-Watch-Fashion-Blu-ray-Roman-Watch-For-Man-Relojes-Para-Hombre.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/H02c2565e5a24412bbd363f927ad5a895m/Men-Watches-2022-Luxury-Belt-Watch-Fashion-Blu-ray-Roman-Watch-For-Man-Relojes-Para-Hombre.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Hdc5fe8cb61b9476c8016ae7017df8615l/Men-Watches-2022-Luxury-Belt-Watch-Fashion-Blu-ray-Roman-Watch-For-Man-Relojes-Para-Hombre.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>PAGANI DESIGN V2 40MM GMT Luxury Men's Stainless Steel Watch Waterproof Automatic Mechanical Watch Men's Business Reloj Hombr</t>
+  </si>
+  <si>
+    <t>PAGANI-DESIGN-V2-40MM-GMT-Luxury-Men-s-Stainless-Steel-Watch-Waterproof-Automatic-Mechanical-Watch-Men-s-Business-Reloj-Hombr</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Rugum"&gt;Rugum&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="10Bar"&gt;10Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Business"&gt;Business&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="22cminch"&gt;22cminch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Folding Clasp with Safety"&gt;Folding Clasp with Safety&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Automatic Self-Wind"&gt;Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="13mm"&gt;13mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Paper"&gt;Paper&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Shock Resistant,Luminous,Auto Date,Complete Calendar,Diver,Water Resistant,Swim,luminous hands,Anti-magnetic"&gt;Shock Resistant,Luminous,Auto Date,Complete Calendar,Diver,Water Resistant,Swim,luminous hands,Anti-magnetic&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20mm"&gt;20mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="40mm"&gt;40mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="PD-1662 Watch for Men"&gt;PD-1662 Watch for Men&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;relogio PAGANI DESIGN:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="fashion &amp;amp; casual &amp;amp; Business Watches"&gt;fashion &amp;amp; casual &amp;amp; Business Watches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;montre PAGANI DESIGN:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Waterproof Wristwatches, Men's watches"&gt;Waterproof Wristwatches, Men's watches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;GMT Mechanical watches:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GMT Automatic Mechanical Men's Watch"&gt;GMT Automatic Mechanical Men's Watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;GMT Watch:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GMT Men Watch"&gt;GMT Men Watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;PAGANI GMT Watch:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="PAGANI GMT Men"&gt;PAGANI GMT Men&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S736f07dc17db4495a489ce875a76b0e8P/PAGANI-DESIGN-V2-40MM-GMT-Luxury-Men-s-Stainless-Steel-Watch-Waterproof-Automatic-Mechanical-Watch-Men.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S4b6521aa430e4f6ab4494c372d02bf959/PAGANI-DESIGN-V2-40MM-GMT-Luxury-Men-s-Stainless-Steel-Watch-Waterproof-Automatic-Mechanical-Watch-Men.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S60078126f3984785bbafaee40f10b027t/PAGANI-DESIGN-V2-40MM-GMT-Luxury-Men-s-Stainless-Steel-Watch-Waterproof-Automatic-Mechanical-Watch-Men.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>PAGANI DESIGN Men Mechanical Wristwatch Sapphire Glass 40MM Ceramic GMT Automatic Watches Men's Stainless Steel Waterproof Clock</t>
+  </si>
+  <si>
+    <t>PAGANI-DESIGN-Men-Mechanical-Wristwatch-Sapphire-Glass-40MM-Ceramic-GMT-Automatic-Watches-Men-s-Stainless-Steel-Waterproof-Clock</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="PAGANI DESIGN"&gt;PAGANI DESIGN&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="10Bar"&gt;10Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="22cm"&gt;22cm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Folding Clasp with Safety"&gt;Folding Clasp with Safety&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Hand Wind,Automatic Self-Wind"&gt;Mechanical Hand Wind,Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="13mm"&gt;13mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Paper"&gt;Paper&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Shock Resistant,Luminous,Auto Date,Complete Calendar,Diver,Multiple Time Zone,Water Resistant,luminous hands"&gt;Shock Resistant,Luminous,Auto Date,Complete Calendar,Diver,Multiple Time Zone,Water Resistant,luminous hands&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20mm"&gt;20mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="40mm"&gt;40mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="PD-1662"&gt;PD-1662&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Factory supply:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Support dropshipping"&gt;Support dropshipping&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Warranty period:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="2 years free warranty"&gt;2 years free warranty&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;men's mechanic watches:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="mechanical men wrist watches,mechanical men wrist watches"&gt;mechanical men wrist watches,mechanical men wrist watches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pagani design automatic:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="automatic watch men"&gt;automatic watch men&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pagani design watch:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="diver men watch"&gt;diver men watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pagani gmt:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GMT mechanical watch"&gt;GMT mechanical watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Reloj Hombre:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Relogio Masculino"&gt;Relogio Masculino&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pagani design automatic watch:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="men mechanical wristwatches"&gt;men mechanical wristwatches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pagani watch:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="mechanical watches for men"&gt;mechanical watches for men&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pagani design:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GMT Lefty watch"&gt;GMT Lefty watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistant:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="10Bar=100 meters"&gt;10Bar=100 meters&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pagani design official store:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="automatic mechanical wristwatch"&gt;automatic mechanical wristwatch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;power reserve:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="men mechanical wristwatch"&gt;men mechanical wristwatch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;ceramic bezel:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="V2 version 120 Clicks"&gt;V2 version 120 Clicks&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;40mm Mechanical watch:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="business watch men"&gt;business watch men&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;watch:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="watch for men"&gt;watch for men&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pagani design gmt:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="40mm gmt mechanical watch"&gt;40mm gmt mechanical watch&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;watch mens:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="mens watches"&gt;mens watches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pagani design herrenuhr:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="pagani design herrenuhr automatik"&gt;pagani design herrenuhr automatik&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pagani design orologi uomo:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="pagani design automatico"&gt;pagani design automatico&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sd8d5792e5349457b94f5b8d63033b94ex/PAGANI-DESIGN-Men-Mechanical-Wristwatch-Sapphire-Glass-40MM-Ceramic-GMT-Automatic-Watches-Men-s-Stainless-Steel.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S79a227a5f6834d418730391525336ceer/PAGANI-DESIGN-Men-Mechanical-Wristwatch-Sapphire-Glass-40MM-Ceramic-GMT-Automatic-Watches-Men-s-Stainless-Steel.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S3ed9f444795f4b31823afe201f4f3d3ew/PAGANI-DESIGN-Men-Mechanical-Wristwatch-Sapphire-Glass-40MM-Ceramic-GMT-Automatic-Watches-Men-s-Stainless-Steel.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>Shanghai Diamond Brand Classic Retro Manual Watch 17-Drill Mechanical Movement Winding Men's Watch Relogio Masculino</t>
+  </si>
+  <si>
+    <t>Shanghai-Diamond-Brand-Classic-Retro-Manual-Watch-17-Drill-Mechanical-Movement-Winding-Men-s-Watch-Relogio-Masculino</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="SNQP"&gt;SNQP&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No Waterproof"&gt;No Waterproof&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Leather"&gt;Leather&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="24cm"&gt;24cm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Alloy"&gt;Alloy&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Buckle"&gt;Buckle&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Hand Wind"&gt;Mechanical Hand Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="10mm"&gt;10mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No package"&gt;No package&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20mm"&gt;20mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="36mm"&gt;36mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Glass"&gt;Glass&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sc021a84abe18446dbd8ad564316becc6W/Shanghai-Diamond-Brand-Classic-Retro-Manual-Watch-17-Drill-Mechanical-Movement-Winding-Men-s-Watch-Relogio.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S393efe51bd8646a5820cb79ad04356442/Shanghai-Diamond-Brand-Classic-Retro-Manual-Watch-17-Drill-Mechanical-Movement-Winding-Men-s-Watch-Relogio.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sb850a9adf4324dd393945dfc9cf68b9bi/Shanghai-Diamond-Brand-Classic-Retro-Manual-Watch-17-Drill-Mechanical-Movement-Winding-Men-s-Watch-Relogio.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>THORN Men's CUSN8 Bronze Pilot Wristwatch 43mm Black Dial Sapphire Seagull ST3621 Hand Wind Mechanical Movement Luminous Marks</t>
+  </si>
+  <si>
+    <t>THORN-Men-s-CUSN8-Bronze-Pilot-Wristwatch-43mm-Black-Dial-Sapphire-Seagull-ST3621-Hand-Wind-Mechanical-Movement-Luminous-Marks</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="MIRETRO"&gt;MIRETRO&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="3Bar"&gt;3Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Leather"&gt;Leather&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20cm"&gt;20cm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Brass"&gt;Brass&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Buckle"&gt;Buckle&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Hand Wind"&gt;Mechanical Hand Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="12.3mm"&gt;12.3mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Paper"&gt;Paper&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Luminous,Water Resistant,luminous hands"&gt;Luminous,Water Resistant,luminous hands&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="22mm"&gt;22mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="43mm"&gt;43mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="SHY023"&gt;SHY023&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Seagull ST3621 Hand Winding Movement"&gt;Seagull ST3621 Hand Winding Movement&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="CUSN8 Bronze Material Case/Stainless Steel"&gt;CUSN8 Bronze Material Case/Stainless Steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Glass:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Double Curved Sapphire With Blue Coated"&gt;Double Curved Sapphire With Blue Coated&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Lug to Lug:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="52mm"&gt;52mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistant:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="30m"&gt;30m&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Back:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Screw Case back with see through sapphire"&gt;Screw Case back with see through sapphire&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S82467df02b2d45e8af59bb8106225d03K/THORN-Men-s-CUSN8-Bronze-Pilot-Wristwatch-43mm-Black-Dial-Sapphire-Seagull-ST3621-Hand-Wind-Mechanical.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sb5af2c94bf4c441781deccc0e3f0df71d/THORN-Men-s-CUSN8-Bronze-Pilot-Wristwatch-43mm-Black-Dial-Sapphire-Seagull-ST3621-Hand-Wind-Mechanical.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sca066acb67594897aa50973525b907ecT/THORN-Men-s-CUSN8-Bronze-Pilot-Wristwatch-43mm-Black-Dial-Sapphire-Seagull-ST3621-Hand-Wind-Mechanical.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>40mm Fashion Luxury Pilot Little Prince Men's Automatic Mechanical Watch 100m Waterproof Luminous Sapphire Crystal Reloj Hombre</t>
+  </si>
+  <si>
+    <t>40mm-Fashion-Luxury-Pilot-Little-Prince-Men-s-Automatic-Mechanical-Watch-100m-Waterproof-Luminous-Sapphire-Crystal-Reloj-Hombre</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="RUIYI"&gt;RUIYI&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="10Bar"&gt;10Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Leather"&gt;Leather&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Fashion &amp;amp; Casual"&gt;Fashion &amp;amp; Casual&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="25cm"&gt;25cm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Buckle"&gt;Buckle&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Automatic Self-Wind"&gt;Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="12mm"&gt;12mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Paper"&gt;Paper&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Shock Resistant,Luminous,Water Resistant,Swim,luminous hands"&gt;Shock Resistant,Luminous,Water Resistant,Swim,luminous hands&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20mm"&gt;20mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="40mm"&gt;40mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="082502"&gt;082502&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Pilot"&gt;Pilot&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Business"&gt;Business&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Warranty:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Shop warranty"&gt;Shop warranty&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Popular elements:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flight"&gt;Flight&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Strap material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Genuine Leather"&gt;Genuine Leather&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Display method:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Pointer"&gt;Pointer&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Crown type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Screw-in"&gt;Screw-in&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Bottom type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Ordinary"&gt;Ordinary&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Watch mirror material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire crystal"&gt;Sapphire crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Japan"&gt;Japan&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sb4bc1a100ff149c6a4109ef5315791c6l/40mm-Fashion-Luxury-Pilot-Little-Prince-Men-s-Automatic-Mechanical-Watch-100m-Waterproof-Luminous-Sapphire-Crystal.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S2830601cad3040328c17cc3502b59cbdd/40mm-Fashion-Luxury-Pilot-Little-Prince-Men-s-Automatic-Mechanical-Watch-100m-Waterproof-Luminous-Sapphire-Crystal.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S9397deecd611477baf20af2c8bfcf8347/40mm-Fashion-Luxury-Pilot-Little-Prince-Men-s-Automatic-Mechanical-Watch-100m-Waterproof-Luminous-Sapphire-Crystal.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>PAGANI DESIGN 40MM PP Mechanical Automatic Watch For Men Luxury AR Sapphire glass 100M Waterproof Stainless steel Wristwatch Men</t>
+  </si>
+  <si>
+    <t>PAGANI-DESIGN-40MM-PP-Mechanical-Automatic-Watch-For-Men-Luxury-AR-Sapphire-glass-100M-Waterproof-Stainless-steel-Wristwatch-Men</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="PAGANI DESIGN"&gt;PAGANI DESIGN&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="10Bar"&gt;10Bar&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Luxury"&gt;Luxury&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="21cm"&gt;21cm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Bracelet Clasp"&gt;Bracelet Clasp&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Hand Wind,Automatic Self-Wind"&gt;Mechanical Hand Wind,Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="14.3mm"&gt;14.3mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Paper"&gt;Paper&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Shock Resistant,Water Resistant,Swim,luminous hands"&gt;Shock Resistant,Water Resistant,Swim,luminous hands&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="24.5mm"&gt;24.5mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="40mm"&gt;40mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Tonneau"&gt;Tonneau&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="PD-1728"&gt;PD-1728&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Sapphire Crystal"&gt;Sapphire Crystal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Af4d2c4596f7844db9ccf457045d3092eo/PAGANI-DESIGN-40MM-PP-Mechanical-Automatic-Watch-For-Men-Luxury-AR-Sapphire-glass-100M-Waterproof-Stainless.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Aaa79d0e600ec4079adac7699911072dfE/PAGANI-DESIGN-40MM-PP-Mechanical-Automatic-Watch-For-Men-Luxury-AR-Sapphire-glass-100M-Waterproof-Stainless.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/A3710cf98228142d5b2a8309e63dd9722U/PAGANI-DESIGN-40MM-PP-Mechanical-Automatic-Watch-For-Men-Luxury-AR-Sapphire-glass-100M-Waterproof-Stainless.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>Men Mechanical Watches WINNER Fashion Silver Stainless Steel Skeleton Automatic Wrist Watch Man Male Casual Dress Clock Hodinky</t>
+  </si>
+  <si>
+    <t>Men-Mechanical-Watches-WINNER-Fashion-Silver-Stainless-Steel-Skeleton-Automatic-Wrist-Watch-Man-Male-Casual-Dress-Clock-Hodinky</t>
+  </si>
+  <si>
+    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="GoGoey"&gt;GoGoey&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Water Resistance Depth:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No Waterproof"&gt;No Waterproof&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Clasp Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Bracelet Clasp"&gt;Bracelet Clasp&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Style:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Antique"&gt;Antique&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Movement:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Automatic Self-Wind"&gt;Automatic Self-Wind&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Length:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20.5cm"&gt;20.5cm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Feature:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="None"&gt;None&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Otomatik Erkek Kol Saati"&gt;Otomatik Erkek Kol Saati&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Shape:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Round"&gt;Round&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Width:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="20.5mm"&gt;20.5mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Case Thickness:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="14.5mm"&gt;14.5mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Window Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Hardlex"&gt;Hardlex&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Boxes &amp;amp; Cases Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No package"&gt;No package&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Item Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mechanical Wristwatches"&gt;Mechanical Wristwatches&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Dial Diameter:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="41mm"&gt;41mm&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Band Material Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Stainless steel"&gt;Stainless steel&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB11fBsaJfvK1RjSszhq6AcGFXa8/Men-Mechanical-Watches-WINNER-Fashion-Silver-Stainless-Steel-Skeleton-Automatic-Wrist-Watch-Man-Male-Casual-Dress.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1joxoaJjvK1RjSspiq6AEqXXas/Men-Mechanical-Watches-WINNER-Fashion-Silver-Stainless-Steel-Skeleton-Automatic-Wrist-Watch-Man-Male-Casual-Dress.jpg_Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1450naULrK1Rjy1zbq6AenFXa5/Men-Mechanical-Watches-WINNER-Fashion-Silver-Stainless-Steel-Skeleton-Automatic-Wrist-Watch-Man-Male-Casual-Dress.jpg_Q90.jpg_.webp</t>
   </si>
 </sst>
 </file>
@@ -92,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:I3"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -103,13 +400,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>109.0</v>
+        <v>8873.0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.283037349E9</v>
+        <v>1.005004691E9</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -124,36 +421,558 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20086.0</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>208.0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="n">
+        <v>1.005004688E9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.28230539E9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B4" t="n">
+        <v>24200.0</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="D4" t="n">
+        <v>1.005004682E9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>54853.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.005004682E9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.005004325E9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7108.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.005002091E9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.005004689E9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5693.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.005004682E9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9395.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.005004493E9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.005001634E9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="n">
+        <v>605.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.005003599E9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6855.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.005004671E9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="n">
+        <v>757.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.005003716E9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8065.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.005004675E9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9014.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.005004495E9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5412.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.005004691E9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11293.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.005004664E9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8993.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.005004681E9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10438.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.005004684E9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1911.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.296856672E9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Productbook.xlsx
+++ b/Productbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="188">
   <si>
     <t>Simple Product</t>
   </si>
@@ -20,10 +20,73 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>3.0 USB Flash Drive 128GB 64GB 32GB 16GB 8GB Memory Stick Pendrive 64GB 128GB 3.0 High Speed USB Drive 64GB Pen Drive Gift</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="OEING"&gt;OEING&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 3.0"&gt;USB 3.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="OEING-A1"&gt;OEING-A1&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk,Normal,Multifunctional,Creative,OTG"&gt;Flash Disk,Normal,Multifunctional,Creative,OTG&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Certification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="NONE"&gt;NONE&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>Pogo BPA-Free Plastic Water Bottle with Chug Lid</t>
+  </si>
+  <si>
+    <t>XL 32oz capacity for big thirsts
+Hard chug spout stays completely covered and yuck-free during transport
+All parts dishwasher safe and BPA free
+Soft touch carry loop perfect for on-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Pogo &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Plastic &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Purple &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2 Pounds &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Adult &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎7.09"W x 7.09"H &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Reusable &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Style &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Chug Spout &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Sport Type &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Exercise &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 Count &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Package Dimensions L x W x H &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎11.3 x 3.78 x 3.23 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Package Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎0.17 Kilograms &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Dimensions  LxWxH &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎4.5 x 4.5 x 10.5 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎0.36 Pounds &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Pogo &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Warranty Description &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Limited Lifetime Warranty &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Suggested Users &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Unisex-adult &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Leapfrog Brands &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Part Number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎233-0432-063 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Included Components &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎BPA-Free Plastic Water Bottle with Chug Lid &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎32 Oz &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B00WH2NIJO &lt;/td&gt;    &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B00WH2NIJO" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="couj16-15v31x-7cfdeh-wv2spb"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.6 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B00WH2NIJO&amp;quot;}" data-csa-c-id="je43aj-ys468v-wn81np-p1u9ng"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.6 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="swycfj-lecow0-y220u6-yq42ae"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;39,263 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.6 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#27 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#6 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;             &lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; April 21, 2015 &lt;/td&gt;    &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_Q59F4XSPPF94BNPA2AB0_&amp;amp;ASIN=B00WH2NIJO&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="6y8z44-5c49v4-29zo5f-65zizr"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
   </si>
   <si>
     <t/>
@@ -35,277 +98,2123 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>3-0-USB-Flash-Drive-128GB-64GB-32GB-16GB-8GB-Memory-Stick-Pendrive-64GB-128GB-3-0-High-Speed-USB-Drive-64GB-Pen-Drive-Gift</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S2af5618b10fd49afa03481e7ac686357p/3-0-USB-Flash-Drive-128GB-64GB-32GB-16GB-8GB-Memory-Stick-Pendrive-64GB-128GB-3.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S351423cb77b84444a03c1542585e4a499/3-0-USB-Flash-Drive-128GB-64GB-32GB-16GB-8GB-Memory-Stick-Pendrive-64GB-128GB-3.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S1e23c742c7ce4486a2eab3dd8657f2a3E/3-0-USB-Flash-Drive-128GB-64GB-32GB-16GB-8GB-Memory-Stick-Pendrive-64GB-128GB-3.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>USB Flash Drive OTG Pen Drive 16GB 32GB 64GB High Speed Usb Stick 128GB 256GB 512GB Flash Drive Pendrive 1t memory stick</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="jiansu"&gt;jiansu&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 2.0"&gt;USB 2.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="usb flash drive"&gt;usb flash drive&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk,Creative,OTG"&gt;Flash Disk,Creative,OTG&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>USB-Flash-Drive-OTG-Pen-Drive-16GB-32GB-64GB-High-Speed-Usb-Stick-128GB-256GB-512GB-Flash-Drive-Pendrive-1t-memory-stick</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Se22560bec3c74d8d9288938f0a839600H/USB-Flash-Drive-OTG-Pen-Drive-16GB-32GB-64GB-High-Speed-Usb-Stick-128GB-256GB-512GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S07b409ceb0934d71b7ae1ea0d130eb5bz/USB-Flash-Drive-OTG-Pen-Drive-16GB-32GB-64GB-High-Speed-Usb-Stick-128GB-256GB-512GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Sa360123166264332aa66657faf8ac15bN/USB-Flash-Drive-OTG-Pen-Drive-16GB-32GB-64GB-High-Speed-Usb-Stick-128GB-256GB-512GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>High Speed USB Flash Drive OTG Pen Drive 64gb Usb Stick 32gb 16gb 8gb 4gb Pendrive Flash Disk for Android Micro/PC</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="abay"&gt;abay&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Micro USB"&gt;Micro USB&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB pen drive"&gt;USB pen drive&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk"&gt;Flash Disk&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Certification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="CE"&gt;CE&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Is there a warranty?:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="one year warranty"&gt;one year warranty&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;free:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="micro adapter"&gt;micro adapter&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>High-Speed-USB-Flash-Drive-OTG-Pen-Drive-64gb-Usb-Stick-32gb-16gb-8gb-4gb-Pendrive-Flash-Disk-for-Android-Micro-PC</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/He69bdd1617e546e0b598541d03067b46R/High-Speed-USB-Flash-Drive-OTG-Pen-Drive-64gb-Usb-Stick-32gb-16gb-8gb-4gb-Pendrive.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/H17e26f222cdd468e9be07fe2792f08ffk/High-Speed-USB-Flash-Drive-OTG-Pen-Drive-64gb-Usb-Stick-32gb-16gb-8gb-4gb-Pendrive.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/H943aabf38d864513aa6e1d7be3df447dM/High-Speed-USB-Flash-Drive-OTG-Pen-Drive-64gb-Usb-Stick-32gb-16gb-8gb-4gb-Pendrive.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>USB Mini 2.0 High Speed Pendrive 128GB 64GB 32GB 16GB 8GB USB Flash Drive 64 32 GB Pen Drive 2.0 USB Flash Drive Stick Best Gift</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="KRY"&gt;KRY&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 2.0"&gt;USB 2.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="MINI D2"&gt;MINI D2&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk,Normal,Multifunctional,Creative"&gt;Flash Disk,Normal,Multifunctional,Creative&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>USB-Mini-2-0-High-Speed-Pendrive-128GB-64GB-32GB-16GB-8GB-USB-Flash-Drive-64-32-GB-Pen-Drive-2-0-USB-Flash-Drive-Stick-Best-Gift</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S8b9b99f06177423eb596ff69b7afcd61Y/USB-Mini-2-0-High-Speed-Pendrive-128GB-64GB-32GB-16GB-8GB-USB-Flash-Drive-64.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S20be64e123934b5d9875a16cbfa02fdcT/USB-Mini-2-0-High-Speed-Pendrive-128GB-64GB-32GB-16GB-8GB-USB-Flash-Drive-64.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Sb0bdf1fd7db1446c810448c4eeb7ab15x/USB-Mini-2-0-High-Speed-Pendrive-128GB-64GB-32GB-16GB-8GB-USB-Flash-Drive-64.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>Pendrive 3.0 USB Flash Drive 128GB 64GB 32GB 16GB 8GB Flash Pen Drive 64GB 128GB 3.0 High Speed Cle USB Stick Free Shipping</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="oeny"&gt;oeny&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 3.0"&gt;USB 3.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="OENY 3.0"&gt;OENY 3.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk,Normal,Multifunctional,Creative,OTG"&gt;Flash Disk,Normal,Multifunctional,Creative,OTG&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Pendrive-3-0-USB-Flash-Drive-128GB-64GB-32GB-16GB-8GB-Flash-Pen-Drive-64GB-128GB-3-0-High-Speed-Cle-USB-Stick-Free-Shipping</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Sb3c40f11f6ce4a958af2fa279cb99237k/Pendrive-3-0-USB-Flash-Drive-128GB-64GB-32GB-16GB-8GB-Flash-Pen-Drive-64GB-128GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S170e52627d5d430b883137e5aef0e33fL/Pendrive-3-0-USB-Flash-Drive-128GB-64GB-32GB-16GB-8GB-Flash-Pen-Drive-64GB-128GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S3e78ed742b1c4102a68db8069cf89824U/Pendrive-3-0-USB-Flash-Drive-128GB-64GB-32GB-16GB-8GB-Flash-Pen-Drive-64GB-128GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>USB Flash Drive 3.0 Pendrive 8GB 16GB 32GB 64GB 128GB Metal Stick Disk 3.0 Pen Drive USB Flash Drive 128GB 64GB 32GB 16GB 8GB</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="OUIO"&gt;OUIO&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 3.0"&gt;USB 3.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="OUIO U100"&gt;OUIO U100&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk,Normal,Multifunctional,Creative,OTG"&gt;Flash Disk,Normal,Multifunctional,Creative,OTG&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>USB-Flash-Drive-3-0-Pendrive-8GB-16GB-32GB-64GB-128GB-Metal-Stick-Disk-3-0-Pen-Drive-USB-Flash-Drive-128GB-64GB-32GB-16GB-8GB</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S52b3cfb62c304ac6bc6051e795aecc3ca/USB-Flash-Drive-3-0-Pendrive-8GB-16GB-32GB-64GB-128GB-Metal-Stick-Disk-3-0.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Sb0a5b129d39a48d9bdc671ef859eab4f7/USB-Flash-Drive-3-0-Pendrive-8GB-16GB-32GB-64GB-128GB-Metal-Stick-Disk-3-0.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S42dd17e7184b4389a5a14fd671b3625eZ/USB-Flash-Drive-3-0-Pendrive-8GB-16GB-32GB-64GB-128GB-Metal-Stick-Disk-3-0.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>100pcs/lot USB Flash Drive 2.0 Pen Drives 64GB 32GB 16GB 8GB 4GB Pendrive Usb Memory Stick Free Logo for Photography Gift</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="oeny"&gt;oeny&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 2.0"&gt;USB 2.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB flash drive"&gt;USB flash drive&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk,Normal,Multifunctional"&gt;Flash Disk,Normal,Multifunctional&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Certification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="NONE"&gt;NONE&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Pendrives type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="usb 2.0"&gt;usb 2.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pendrive:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="real capacity"&gt;real capacity&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Super Mini PenDrive Hight Speed"&gt;Super Mini PenDrive Hight Speed&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;USB Stick:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="each one pass the test"&gt;each one pass the test&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;for:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="gift/photography/business/wedding"&gt;gift/photography/business/wedding&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>100pcs-lot-USB-Flash-Drive-2-0-Pen-Drives-64GB-32GB-16GB-8GB-4GB-Pendrive-Usb-Memory-Stick-Free-Logo-for-Photography-Gift</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S7b76743aab5343979eaac1518890f552i/100pcs-lot-USB-Flash-Drive-2-0-Pen-Drives-64GB-32GB-16GB-8GB-4GB-Pendrive-Usb.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S810c47b03e814243b95bac7863c1a1b5n/100pcs-lot-USB-Flash-Drive-2-0-Pen-Drives-64GB-32GB-16GB-8GB-4GB-Pendrive-Usb.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Sdb597aee5a964849b45360e5e809da14Z/100pcs-lot-USB-Flash-Drive-2-0-Pen-Drives-64GB-32GB-16GB-8GB-4GB-Pendrive-Usb.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>USB flash drive 256GB 512GB pendrive 16gb 32gb 64gb 128gb usb2. 0 usb stick pen drive flash usb disk FOR CAR CAOMPUTER</t>
-  </si>
-  <si>
-    <t>USB-flash-drive-256GB-512GB-pendrive-16gb-32gb-64gb-128gb-usb2--0-usb-stick-pen-drive-flash-usb-disk-FOR-CAR-CAOMPUTER</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S46d3367dd1c94d0db5ee6fb54a0911c45/USB-flash-drive-256GB-512GB-pendrive-16gb-32gb-64gb-128gb-usb2-0-usb-stick-pen-drive.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S9c33f42726a148d4ab8c46ab92e9b90ba/USB-flash-drive-256GB-512GB-pendrive-16gb-32gb-64gb-128gb-usb2-0-usb-stick-pen-drive.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S8b3c5766b6144466a8cae50e31dd121ex/USB-flash-drive-256GB-512GB-pendrive-16gb-32gb-64gb-128gb-usb2-0-usb-stick-pen-drive.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>100pcs/lot usb flash drive2.0 metal usb flash memoria stick 4GB 8GB 16GB pen drive wedding free logo cle usb 64GB 32GB USB Key</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="KFHIREW"&gt;KFHIREW&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 2.0"&gt;USB 2.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB flash drive"&gt;USB flash drive&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk"&gt;Flash Disk&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Certification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="NONE"&gt;NONE&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;logo:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="logo free"&gt;logo free&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;for:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="business/gift/photography/wedding day"&gt;business/gift/photography/wedding day&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Use:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Photography,business,gift,wedding"&gt;Photography,business,gift,wedding&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Storage Space:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Real capacity"&gt;Real capacity&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;pen drive:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="pass H2 test"&gt;pass H2 test&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>100pcs-lot-usb-flash-drive2-0-metal-usb-flash-memoria-stick-4GB-8GB-16GB-pen-drive-wedding-free-logo-cle-usb-64GB-32GB-USB-Key</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S5f55f500a2f94b268c4a5cb283fb6c94u/100pcs-lot-usb-flash-drive2-0-metal-usb-flash-memoria-stick-4GB-8GB-16GB-pen-drive.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S91cbed04a433423088fab791eb18bf8eE/100pcs-lot-usb-flash-drive2-0-metal-usb-flash-memoria-stick-4GB-8GB-16GB-pen-drive.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S514b5a95cd5d4c1eba84378af49d198cJ/100pcs-lot-usb-flash-drive2-0-metal-usb-flash-memoria-stick-4GB-8GB-16GB-pen-drive.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>50PCS/Lot New Metal USB Flash Drives 2.0 32GB 16GB 64GB Pen drive wholesale 4GB 8GB Memory Sticks Cars carry Free Custom Logo</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="oeny"&gt;oeny&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 2.0"&gt;USB 2.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="metal pendrive"&gt;metal pendrive&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk,Normal,Multifunctional,Creative"&gt;Flash Disk,Normal,Multifunctional,Creative&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Certification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="NONE"&gt;NONE&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;flash usb 2.0:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="High-speed real capacity"&gt;High-speed real capacity&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Products Status:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="in stock"&gt;in stock&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Specification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="original metal usb flash drive"&gt;original metal usb flash drive&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;USB Used for:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="wedding , photography , gift , business"&gt;wedding , photography , gift , business&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;flash usb pen:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="usb flash drive 64gb"&gt;usb flash drive 64gb&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>50PCS-Lot-New-Metal-USB-Flash-Drives-2-0-32GB-16GB-64GB-Pen-drive-wholesale-4GB-8GB-Memory-Sticks-Cars-carry-Free-Custom-Logo</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S7c4c1d0d2f414d168362d437b4de1312m/50PCS-Lot-New-Metal-USB-Flash-Drives-2-0-32GB-16GB-64GB-Pen-drive-wholesale-4GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S2e69a716deb649aa8ebc3b32c0525591c/50PCS-Lot-New-Metal-USB-Flash-Drives-2-0-32GB-16GB-64GB-Pen-drive-wholesale-4GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S1f38dd30d79248e495a7c9c9d17cde09W/50PCS-Lot-New-Metal-USB-Flash-Drives-2-0-32GB-16GB-64GB-Pen-drive-wholesale-4GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>20pcs/lot wooden heart pen drive usb flash memoria stick free custom logo for wedding day pen drive 4GB 8GB 16GB 32GB 64GB USB</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="KFHIREW"&gt;KFHIREW&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 2.0"&gt;USB 2.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB Flash Drive"&gt;USB Flash Drive&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk,Multifunctional"&gt;Flash Disk,Multifunctional&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Wooden"&gt;Wooden&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Certification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="NONE"&gt;NONE&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Logo:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Free Logo"&gt;Free Logo&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Price:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Factory Wholesale Price"&gt;Factory Wholesale Price&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;For:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Business /Wedding Gifts/Films/Photography"&gt;Business /Wedding Gifts/Films/Photography&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>20pcs-lot-wooden-heart-pen-drive-usb-flash-memoria-stick-free-custom-logo-for-wedding-day-pen-drive-4GB-8GB-16GB-32GB-64GB-USB</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S89dcb0533617444fbac483eee0b99fae3/20pcs-lot-wooden-heart-pen-drive-usb-flash-memoria-stick-free-custom-logo-for-wedding-day.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Sef583ca52bf3444f99f8dcd9eb3cde07L/20pcs-lot-wooden-heart-pen-drive-usb-flash-memoria-stick-free-custom-logo-for-wedding-day.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S807ea67e814745aa90817b98047e4650K/20pcs-lot-wooden-heart-pen-drive-usb-flash-memoria-stick-free-custom-logo-for-wedding-day.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>USB3.0 Metal USB Flash Drive Whistle 16/32/64gb Creative Personality Car Music Gift High-Speed USB Flash Drive</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 3.0"&gt;USB 3.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="ordinary U disk"&gt;ordinary U disk&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Normal"&gt;Normal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Certification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="NONE"&gt;NONE&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>USB3-0-Metal-USB-Flash-Drive-Whistle-16-32-64gb-Creative-Personality-Car-Music-Gift-High-Speed-USB-Flash-Drive</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S1b3f98105f6149e09bf51613464e2bb0Q/USB3-0-Metal-USB-Flash-Drive-Whistle-16-32-64gb-Creative-Personality-Car-Music-Gift-High.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Sc53033b9353a4e33976de4e1d1162c793/USB3-0-Metal-USB-Flash-Drive-Whistle-16-32-64gb-Creative-Personality-Car-Music-Gift-High.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S7b7b891cc97242feb1baa16d88f2c6d2S/USB3-0-Metal-USB-Flash-Drive-Whistle-16-32-64gb-Creative-Personality-Car-Music-Gift-High.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>100PCS/Lot USB Flash Drive 1GB 2GB 4G 8GB Pen Drive 16GB 32GB Pendrive 64GB 2.0 Gift u disk USB Stick Free Custom Logo</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="oeny"&gt;oeny&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 2.0"&gt;USB 2.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB Flash Drive"&gt;USB Flash Drive&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk"&gt;Flash Disk&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Certification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="NONE"&gt;NONE&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;logo:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="free logo"&gt;free logo&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;use:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="wedding/photography"&gt;wedding/photography&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;capacity:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="4gb 8gb 16gb 32gb 64gb  2gb 1gb"&gt;4gb 8gb 16gb 32gb 64gb  2gb 1gb&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="high speed ,good quality"&gt;high speed ,good quality&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>100PCS-Lot-USB-Flash-Drive-1GB-2GB-4G-8GB-Pen-Drive-16GB-32GB-Pendrive-64GB-2-0-Gift-u-disk-USB-Stick-Free-Custom-Logo</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S1a02458a85614c0c9009d4ae7f4e66923/100PCS-Lot-USB-Flash-Drive-1GB-2GB-4G-8GB-Pen-Drive-16GB-32GB-Pendrive-64GB-2.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S04f219711da64b69ab4ec99adca12518k/100PCS-Lot-USB-Flash-Drive-1GB-2GB-4G-8GB-Pen-Drive-16GB-32GB-Pendrive-64GB-2.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S61d822dd33a44554ac29a44812c5d487S/100PCS-Lot-USB-Flash-Drive-1GB-2GB-4G-8GB-Pen-Drive-16GB-32GB-Pendrive-64GB-2.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>3.0 USB Flash Drive Pen Drive 128GB 64GB 32GB 16GB 8GB USB Stick 64GB 128GB Pendrive Flash Drive For Android Micro/PC/Car/TV</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="OUIO"&gt;OUIO&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 3.0"&gt;USB 3.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="NB-1"&gt;NB-1&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk,Normal,Multifunctional,Creative,OTG"&gt;Flash Disk,Normal,Multifunctional,Creative,OTG&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>3-0-USB-Flash-Drive-Pen-Drive-128GB-64GB-32GB-16GB-8GB-USB-Stick-64GB-128GB-Pendrive-Flash-Drive-For-Android-Micro-PC-Car-TV</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Sb52499e439ce44ed8e29321711340a3eD/3-0-USB-Flash-Drive-Pen-Drive-128GB-64GB-32GB-16GB-8GB-USB-Stick-64GB-128GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Sa3a148351a854bcbb6b144a2dcab3b2ff/3-0-USB-Flash-Drive-Pen-Drive-128GB-64GB-32GB-16GB-8GB-USB-Stick-64GB-128GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S36b1c739f69b4e77a0bef5e85919b0900/3-0-USB-Flash-Drive-Pen-Drive-128GB-64GB-32GB-16GB-8GB-USB-Stick-64GB-128GB.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>Faster Shipping Free Logo Real Capacity 50pcs/lot Pendrive 128mb 4gb 1gb Business Gift cleUSB2.0 Flash Pen Drive Memory Stick</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="KAWEIDA"&gt;KAWEIDA&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 2.0"&gt;USB 2.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Yes"&gt;Yes&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk,Normal,Creative"&gt;Flash Disk,Normal,Creative&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk,Creative"&gt;Flash Disk,Creative&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Metal"&gt;Metal&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Certification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="NONE"&gt;NONE&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 2.0"&gt;USB 2.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB flash drive"&gt;USB flash drive&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk"&gt;Flash Disk&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;USB Sticks:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="cle usb"&gt;cle usb&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;memoria usb:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="pendrives"&gt;pendrives&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Faster-Shipping-Free-Logo-Real-Capacity-50pcs-lot-Pendrive-128mb-4gb-1gb-Business-Gift-cleUSB2-0-Flash-Pen-Drive-Memory-Stick</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S6215fb9770084353ad8ee065d44e9653x/Faster-Shipping-Free-Logo-Real-Capacity-50pcs-lot-Pendrive-128mb-4gb-1gb-Business-Gift-cleUSB2-0.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S5bac416fc7ce41baa2f24a53d57e91fdJ/Faster-Shipping-Free-Logo-Real-Capacity-50pcs-lot-Pendrive-128mb-4gb-1gb-Business-Gift-cleUSB2-0.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S96882166476e472f885c35bc81c0b99cK/Faster-Shipping-Free-Logo-Real-Capacity-50pcs-lot-Pendrive-128mb-4gb-1gb-Business-Gift-cleUSB2-0.jpg_Q90.jpg_.webp</t>
-  </si>
-  <si>
-    <t>80pcs 4GB USB 2.0</t>
-  </si>
-  <si>
-    <t>&lt;ul class="product-specs-list util-clearfix"&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Brand Name:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="fivestarsbuy"&gt;fivestarsbuy&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Origin:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Mainland China"&gt;Mainland China&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Interface Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB 2.0"&gt;USB 2.0&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Package:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Model Number:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="USB flash drive"&gt;USB flash drive&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Product Type:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="Flash Disk"&gt;Flash Disk&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Material:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="CRYSTAL"&gt;CRYSTAL&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Encryption:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="No"&gt;No&lt;/span&gt;&lt;/li&gt;&lt;li class="product-prop line-limit-length"&gt;&lt;span class="property-title"&gt;Certification:&amp;nbsp;&lt;/span&gt;&lt;span class="property-desc line-limit-length" title="NONE"&gt;NONE&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>80pcs-4GB-USB-2-0</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/Sf28bee5d400e4dd8b2a5732fcffe1be8k/80pcs-4GB-USB-2-0.jpg_Q90.jpg_.webp</t>
+    <t>Pogo-BPA-Free-Plastic-Water-Bottle</t>
+  </si>
+  <si>
+    <t>B00WH2NIJO</t>
+  </si>
+  <si>
+    <t>9.99</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81ON9Mdl3AL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Sr-nTeieL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Pogo BPA-Free Tritan Plastic Water Bottle with Soft Straw, 32 Oz, Teal</t>
+  </si>
+  <si>
+    <t>XL 32oz capacity for big thirsts
+Silicone soft straw stays completely covered and yuck-free during transport
+All parts dishwasher safe and BPA free. Straw disassembles for easy cleaning.
+Soft touch carry loop perfect for on-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Pogo &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Plastic &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Teal &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2 Pounds &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Adult &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Tritan Soft Straw &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎4.5"W x 10.5"H &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Reusable &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Style &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Soft Straw &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1.0 Count &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; 	Manufacturer	 &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Leapfrog Brands &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Part Number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎233-0299-023 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎5.7 ounces &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎4.5 x 4.5 x 10.5 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎China &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎233-0299-023 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Is Discontinued By Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎32 oz - Straw &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Package Quantity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Included Components &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎BPA-Free Plastic Water Bottle with Soft Straw &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Included? &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Required? &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Warranty Description &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Limited Lifetime Warranty &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B0743Q1X32 &lt;/td&gt;    &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B0743Q1X32" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="9nz2mz-5nsm2l-y3fcd-hcgy1g"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.7 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B0743Q1X32&amp;quot;}" data-csa-c-id="jdpur6-tgs5cy-rps31j-rw8afw"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.7 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="1mlvr0-s4mbk8-ry1e61-wouck7"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;1,486 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.7 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#640 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#82 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;                           &lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; May 5, 2017 &lt;/td&gt;    &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_366BPBEXB0GYH102AMZD_&amp;amp;ASIN=B0743Q1X32&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="2awssv-bks7kp-xuuv1z-h52giq"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
+  </si>
+  <si>
+    <t>Pogo-Tritan-Water-Bottle-Straw</t>
+  </si>
+  <si>
+    <t>B0743Q1X32</t>
+  </si>
+  <si>
+    <t>8.99</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71kk4GU8RIL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71TpKckfT1L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71LnmVTvKNL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>BJPKPK Insulated Water Bottles -17oz/25oz, Stainless Steel Water bottles,Sports water bottles Keep cold for 24 Hours and hot for 12 Hours, BPA Free Kids Water Bottle for School</t>
+  </si>
+  <si>
+    <t>Safe and Reliable: BPA-Free, made of food grade 18/8 stainless steel, double wall vacuum insulated bottle. Eco-friendly, lead free, rust proof and leak proof, no sweat, no condensation any more.
+Keep drinks cold &amp; hot: Keep your drinks ice cold for 24 hours and hot for 12 hours within our highly performed insulated water bottle. No sweat on the exterior side to keep your hands comfortable while holding.
+Keep Hydration: Drinking more water with this water bottle, suitable for any sports activities, work, school and any scenario in your daily life.
+Functional style: Our water bottles have been designed with spill proof and leak proof features for convenient use and travelling.
+Perfect size: Our water bottles are designed with perfect size for daily use and also perfect fit in your car cup holder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hr noshade="true" size="1" class="bucketDivider"&gt;
+         &lt;h2&gt;From the brand&lt;/h2&gt;                                     &lt;div class="aplus-v2 desktop celwidget" cel_widget_id="aplus" data-csa-c-id="6o55t9-g9cyeq-4uf3x6-23l7dy"&gt;
+        &lt;style type="text/css"&gt;
+    /*
+     * Used when device = desktop
+     * Configured in: configuration/brazil-config/global/brand-story.cfg
+     */
+    /* Top level containers */
+    .aplus-module .apm-brand-story-hero {
+      -moz-box-sizing: border-box;
+      -webkit-box-sizing: border-box;
+      box-sizing: border-box;
+      width: 1464px;
+      height: 625px;
+      background-color: #fff;
+    }
+    .aplus-module .apm-brand-story-card {
+      -moz-box-sizing: border-box;
+      -webkit-box-sizing: border-box;
+      box-sizing: border-box;
+      width: 362px;
+      height: 453px;
+      background-color: #fff;
+    }
+    .apm-brand-story-hero,
+    .apm-brand-story-card {
+      -moz-box-sizing: border-box;
+      -webkit-box-sizing: border-box;
+      box-sizing: border-box;
+      position: relative;
+      width: 100%;
+      height: 100%;
+      float: none;
+    }
+    .aplus-module.brand-story-card-1-four-asin .apm-brand-story-card {
+      /* Only 12px to account for image cell border */
+      padding: 12px;
+    }
+    /* Full background image (Hero 1 &amp; Card 2) */
+    .aplus-module .apm-brand-story-background-image {
+      -moz-box-sizing: border-box;
+      -webkit-box-sizing: border-box;
+      box-sizing: border-box;
+      overflow: hidden;
+      position: absolute;
+      width: 100%;
+      height: 100%;
+    }
+    /* Card 1 small images */
+    .aplus-module .apm-brand-story-image-row {
+      -moz-box-sizing: border-box;
+      -webkit-box-sizing: border-box;
+      box-sizing: border-box;
+      height: 185px;
+      padding: 0px;
+      margin: auto;
+    }
+    .aplus-module .apm-brand-story-image-row .apm-brand-story-image-cell {
+      /* Use content-box to ensure image size matches editor schema */
+      -moz-box-sizing: content-box;
+      -webkit-box-sizing: content-box;
+      box-sizing: content-box;
+      padding: 0px;
+      margin: 0px;
+      width: 166px;
+      border: 1px solid #fff;
+      float: left;
+    }
+    /* Card 3 logo image */
+    .aplus-module .apm-brand-story-logo-image {
+        -moz-box-sizing: content-box;
+        -webkit-box-sizing: content-box;
+        box-sizing: content-box;
+        height: 145px;
+        margin: 0px 4px;
+        padding: 20px;
+        padding-bottom: 0px;
+    }
+    /* Text overlays */
+    .aplus-module .apm-brand-story-text-bottom {
+      -moz-box-sizing: border-box;
+      -webkit-box-sizing: border-box;
+      box-sizing: border-box;
+      position: absolute;
+      bottom: 13px;
+      left: 13px;
+    }
+    .aplus-module .apm-brand-story-hero .apm-brand-story-text-bottom {
+        background-color: rgba(0,0,0,0.6);
+        color: #fff;
+        padding: 13px 65px 13px 13px; /* accounts for overlap of first card */
+        width: 437px;
+    }
+    .aplus-module.brand-story-card-2-media-asset .apm-brand-story-text-bottom {
+        background-color: rgba(255,255,255,0.6);
+        color: #000;
+        padding: 13px;
+        width: 336px;
+    }
+    .aplus-module.brand-story-card-1-four-asin .apm-brand-story-text {
+        margin-top: 8px;
+    }
+    .aplus-module.brand-story-card-1-four-asin .apm-brand-story-text.apm-brand-story-text-single {
+        margin-top: 20px;
+    }
+    .aplus-module.brand-story-card-1-four-asin .apm-brand-story-text h3 {
+        white-space: nowrap;
+        overflow: hidden;
+        text-overflow: ellipsis;
+    }
+    .aplus-module .apm-brand-story-slogan-text {
+        -moz-box-sizing: content-box;
+        -webkit-box-sizing: content-box;
+        box-sizing: content-box;
+        margin: 0px 4px;
+        padding: 20px;
+    }
+    .aplus-module .apm-brand-story-faq {
+        -moz-box-sizing: content-box;
+        -webkit-box-sizing: content-box;
+        box-sizing: content-box;
+        padding-top: 10px;
+    }
+    .aplus-module .apm-brand-story-faq-block {
+        margin: 0px 10px;
+        padding: 10px;
+    }
+&lt;/style&gt;
+                 &lt;style&gt;
+    .aplus-v2 .apm-brand-story-carousel-container {
+        position: relative;
+    }
+    .aplus-v2 .apm-brand-story-carousel-hero-container,
+    .aplus-v2 .apm-brand-story-carousel-hero-container &gt; div {
+        position: absolute;
+        width: 100%;
+    }
+&lt;/style&gt;
+    &lt;style&gt;
+        /*
+          Ensuring the carousel takes only the space it needs.
+          The sizes need to be set again on the absolutely positioned elements so they can take up space.
+        */
+        .aplus-v2 .apm-brand-story-carousel-container,
+        .aplus-v2 .apm-brand-story-carousel-hero-container {
+            height: 625px;
+            width: calc(100% + 15px);
+            max-width: 1464px;
+            margin-left: auto;
+            margin-right: auto;
+        }
+        /*
+          This centers the carousel vertically on top of the hero image container and after the logo area (125px).
+          Margin-top = (heroHeight - cardHeight - logoAreaHeight) / 2 + logoAreaHeight
+        */
+        .aplus-v2 .apm-brand-story-carousel .a-carousel-row-inner{
+            margin-top: 149px;
+        }
+        /*
+          Cards need to have a width set, otherwise they default to 50px or so.
+          All cards must have the same width. The carousel will resize itself so all cards take the width of the largest card.
+          The left margin is for leaving a space between each card.
+        */
+        .aplus-v2 .apm-brand-story-carousel .a-carousel-card {
+            width: 362px;
+            margin-left: 30px !important;
+        }
+        /* styling the navigation buttons so they are taller, flush with the sides, and have a clean white background */
+        .aplus-v2 .apm-brand-story-carousel .a-carousel-col.a-carousel-left,
+        .aplus-v2 .apm-brand-story-carousel .a-carousel-col.a-carousel-right {
+            padding: 0px;
+        }
+        .aplus-v2 .apm-brand-story-carousel .a-carousel-col.a-carousel-left .a-button-image,
+        .aplus-v2 .apm-brand-story-carousel .a-carousel-col.a-carousel-right .a-button-image {
+            border: none;
+            margin: 0px;
+        }
+        .aplus-v2 .apm-brand-story-carousel .a-carousel-col.a-carousel-left .a-button-image .a-button-inner,
+        .aplus-v2 .apm-brand-story-carousel .a-carousel-col.a-carousel-right .a-button-image .a-button-inner {
+            background: #fff;
+            padding: 20px 6px;
+        }
+        .aplus-v2 .apm-brand-story-carousel .a-carousel-col.a-carousel-left .a-button-image .a-button-inner {
+            border-radius: 0px 4px 4px 0px;
+        }
+        .aplus-v2 .apm-brand-story-carousel .a-carousel-col.a-carousel-right .a-button-image .a-button-inner {
+            border-radius: 4px 0px 0px 4px;
+        }
+    &lt;/style&gt;
+  &lt;div class="apm-brand-story-carousel-container"&gt;
+         &lt;div class="apm-brand-story-carousel-hero-container"&gt;
+                         &lt;div class="celwidget aplus-module brand-story-hero-1-image-logo aplus-brand-story-hero" cel_widget_id="aplus-brand-story-hero-1-image-logo" data-csa-c-id="8982jv-kk5jdr-2b6q82-3funvn"&gt;
+            &lt;div class="apm-brand-story-hero"&gt;
+    &lt;div class="apm-brand-story-background-image"&gt;
+                                      &lt;img alt="bjpkpk" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/eb522094-961c-4a39-81e3-1a2c93208961.__CR0,0,1464,625_PT0_SX1464_V1___.png"&gt;&lt;noscript&gt;&lt;img alt="bjpkpk" src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/eb522094-961c-4a39-81e3-1a2c93208961.__CR0,0,1464,625_PT0_SX1464_V1___.png"/&gt;&lt;/noscript&gt;   &lt;/div&gt;
+     &lt;div class="apm-brand-story-text-bottom"&gt;
+                                               &lt;h3&gt; BJPKPK &lt;/h3&gt;                                    &lt;p&gt; Water Is The Source Of Life, Designed For The Hydration &lt;/p&gt;    &lt;/div&gt;
+     &lt;/div&gt;
+&lt;div style="clear:both"&gt;&lt;/div&gt;
+   &lt;/div&gt;
+                     &lt;/div&gt;
+                 &lt;div id="apm-brand-story-carousel" data-a-carousel-options="{&amp;quot;minimum_gutter_width&amp;quot;:10,&amp;quot;show_partial_next&amp;quot;:true,&amp;quot;name&amp;quot;:&amp;quot;brand-story-carousel&amp;quot;,&amp;quot;single_page_align&amp;quot;:&amp;quot;left&amp;quot;,&amp;quot;circular&amp;quot;:false,&amp;quot;carousel_display_strategy&amp;quot;:&amp;quot;single&amp;quot;,&amp;quot;currentGutter&amp;quot;:10}" class="a-begin a-carousel-container a-carousel-display-stretchyGoodness a-carousel-transition-slide apm-brand-story-carousel size-cards a-carousel-container"&gt;&lt;input autocomplete="on" type="hidden" class="a-carousel-firstvisibleitem"&gt; &lt;div class="a-row a-carousel-controls a-carousel-row a-carousel-has-buttons"&gt;&lt;div class="a-carousel-row-inner"&gt;&lt;div class="a-carousel-col a-carousel-left"&gt;&lt;a class="a-button a-button-image a-carousel-button a-carousel-goto-prevpage" tabindex="0" href="#" id="a-autoid-50"&gt;&lt;span class="a-button-inner"&gt;&lt;i class="a-icon a-icon-previous"&gt;&lt;span class="a-icon-alt"&gt;Previous page&lt;/span&gt;&lt;/i&gt;&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="a-carousel-col a-carousel-center"&gt;&lt;div class="a-carousel-viewport"&gt;&lt;ol class="a-carousel" role="list"&gt; &lt;li class="a-carousel-card apm-brand-story-carousel-card-0" role="listitem"&gt;  &lt;/li&gt;     &lt;li class="a-carousel-card apm-brand-story-carousel-card-1" role="listitem"&gt;           &lt;div class="celwidget aplus-module brand-story-card-2-media-asset aplus-brand-story-card" cel_widget_id="aplus-brand-story-card-2-media-asset" data-csa-c-id="wxrp5o-x7y4tg-1c8ws4-v1nigq"&gt;
+            &lt;div class="apm-brand-story-card"&gt;
+    &lt;div class="apm-brand-story-background-image"&gt;
+                                      &lt;img alt="mug" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/0c55f1e5-5fc5-489e-85a5-2f7d14fd93f4.__CR0,0,362,453_PT0_SX362_V1___.png"&gt;&lt;noscript&gt;&lt;img alt="mug" src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/0c55f1e5-5fc5-489e-85a5-2f7d14fd93f4.__CR0,0,362,453_PT0_SX362_V1___.png"/&gt;&lt;/noscript&gt;   &lt;/div&gt;
+     &lt;/div&gt;
+&lt;div style="clear:both"&gt;&lt;/div&gt;
+   &lt;/div&gt;
+ &lt;/li&gt;    &lt;li class="a-carousel-card apm-brand-story-carousel-card-2" role="listitem"&gt;           &lt;div class="celwidget aplus-module brand-story-card-2-media-asset aplus-brand-story-card" cel_widget_id="aplus-brand-story-card-2-media-asset" data-csa-c-id="c8sd4h-153r76-eu6uvb-gpzw2i"&gt;
+            &lt;div class="apm-brand-story-card"&gt;
+    &lt;div class="apm-brand-story-background-image"&gt;
+                                      &lt;img alt="stainless steel" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/1d079ed0-7cf6-4eae-ab3a-8d7f21952cdb.__CR0,0,362,453_PT0_SX362_V1___.png"&gt;&lt;noscript&gt;&lt;img alt="stainless steel" src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/1d079ed0-7cf6-4eae-ab3a-8d7f21952cdb.__CR0,0,362,453_PT0_SX362_V1___.png"/&gt;&lt;/noscript&gt;   &lt;/div&gt;
+     &lt;/div&gt;
+&lt;div style="clear:both"&gt;&lt;/div&gt;
+   &lt;/div&gt;
+ &lt;/li&gt;    &lt;li class="a-carousel-card apm-brand-story-carousel-card-3" role="listitem"&gt;           &lt;div class="celwidget aplus-module brand-story-card-2-media-asset aplus-brand-story-card" cel_widget_id="aplus-brand-story-card-2-media-asset" data-csa-c-id="ez40aw-vlupe6-gtiham-62vwz5"&gt;
+            &lt;div class="apm-brand-story-card"&gt;
+    &lt;div class="apm-brand-story-background-image"&gt;
+                                      &lt;img alt="30OZ tUMBLER" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/68292b3d-6dad-4f96-a9bc-0dc24b447c72.__CR0,0,724,906_PT0_SX362_V1___.png"&gt;&lt;noscript&gt;&lt;img alt="30OZ tUMBLER" src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/68292b3d-6dad-4f96-a9bc-0dc24b447c72.__CR0,0,724,906_PT0_SX362_V1___.png"/&gt;&lt;/noscript&gt;   &lt;/div&gt;
+     &lt;/div&gt;
+&lt;div style="clear:both"&gt;&lt;/div&gt;
+   &lt;/div&gt;
+ &lt;/li&gt;    &lt;li class="a-carousel-card apm-brand-story-carousel-card-4" role="listitem"&gt;           &lt;div class="celwidget aplus-module brand-story-card-2-media-asset aplus-brand-story-card" cel_widget_id="aplus-brand-story-card-2-media-asset" data-csa-c-id="tw2bgl-ssqkvm-wp1ek2-jn3smj"&gt;
+            &lt;div class="apm-brand-story-card"&gt;
+    &lt;div class="apm-brand-story-background-image"&gt;
+                                      &lt;img alt="bottles" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/d29709bc-25fb-464d-a21b-fd7b6f0f216b.__CR0,0,362,453_PT0_SX362_V1___.png"&gt;&lt;noscript&gt;&lt;img alt="bottles" src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/d29709bc-25fb-464d-a21b-fd7b6f0f216b.__CR0,0,362,453_PT0_SX362_V1___.png"/&gt;&lt;/noscript&gt;   &lt;/div&gt;
+     &lt;/div&gt;
+&lt;div style="clear:both"&gt;&lt;/div&gt;
+   &lt;/div&gt;
+ &lt;/li&gt;    &lt;li class="a-carousel-card apm-brand-story-carousel-card-5" role="listitem"&gt;           &lt;div class="celwidget aplus-module brand-story-card-2-media-asset aplus-brand-story-card" cel_widget_id="aplus-brand-story-card-2-media-asset" data-csa-c-id="z5xm5i-7wnux5-6kik8a-h2psb9"&gt;
+            &lt;div class="apm-brand-story-card"&gt;
+    &lt;div class="apm-brand-story-background-image"&gt;
+                                      &lt;img alt="bottles" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/fa80eb31-29df-4ea4-9f1b-73913a37d8c2.__CR0,0,724,906_PT0_SX362_V1___.png"&gt;&lt;noscript&gt;&lt;img alt="bottles" src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/fa80eb31-29df-4ea4-9f1b-73913a37d8c2.__CR0,0,724,906_PT0_SX362_V1___.png"/&gt;&lt;/noscript&gt;   &lt;/div&gt;
+     &lt;/div&gt;
+&lt;div style="clear:both"&gt;&lt;/div&gt;
+   &lt;/div&gt;
+ &lt;/li&gt;    &lt;li class="a-carousel-card apm-brand-story-carousel-card-6" role="listitem"&gt;           &lt;div class="celwidget aplus-module brand-story-card-2-media-asset aplus-brand-story-card" cel_widget_id="aplus-brand-story-card-2-media-asset" data-csa-c-id="th7dkx-ftwzxb-4w0qyv-wev2ka"&gt;
+            &lt;div class="apm-brand-story-card"&gt;
+    &lt;div class="apm-brand-story-background-image"&gt;
+                                      &lt;img alt="insulated bottles" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/ef3ed41f-a3eb-499b-a1b4-72dd7deb8c1a.__CR0,0,724,906_PT0_SX362_V1___.png"&gt;&lt;noscript&gt;&lt;img alt="insulated bottles" src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/ef3ed41f-a3eb-499b-a1b4-72dd7deb8c1a.__CR0,0,724,906_PT0_SX362_V1___.png"/&gt;&lt;/noscript&gt;   &lt;/div&gt;
+     &lt;/div&gt;
+&lt;div style="clear:both"&gt;&lt;/div&gt;
+   &lt;/div&gt;
+ &lt;/li&gt;    &lt;li class="a-carousel-card apm-brand-story-carousel-card-7" role="listitem"&gt;           &lt;div class="celwidget aplus-module brand-story-card-2-media-asset aplus-brand-story-card" cel_widget_id="aplus-brand-story-card-2-media-asset" data-csa-c-id="1ypbyc-ehgar5-vazu5z-9m2blh"&gt;
+            &lt;div class="apm-brand-story-card"&gt;
+    &lt;div class="apm-brand-story-background-image"&gt;
+                                      &lt;img alt="20oz skinny tumbler" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/6f757854-17e1-4de5-8f80-25519f1061eb.__CR151,0,1199,1500_PT0_SX362_V1___.jpg"&gt;&lt;noscript&gt;&lt;img alt="20oz skinny tumbler" src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/6f757854-17e1-4de5-8f80-25519f1061eb.__CR151,0,1199,1500_PT0_SX362_V1___.jpg"/&gt;&lt;/noscript&gt;   &lt;/div&gt;
+     &lt;/div&gt;
+&lt;div style="clear:both"&gt;&lt;/div&gt;
+   &lt;/div&gt;
+ &lt;/li&gt;    &lt;li class="a-carousel-card apm-brand-story-carousel-card-8" role="listitem"&gt;           &lt;div class="celwidget aplus-module brand-story-card-2-media-asset aplus-brand-story-card" cel_widget_id="aplus-brand-story-card-2-media-asset" data-csa-c-id="59ceww-onwmhf-sc3mfr-jqvn65"&gt;
+            &lt;div class="apm-brand-story-card"&gt;
+    &lt;div class="apm-brand-story-background-image"&gt;
+                                      &lt;img alt="tumbler mug" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/77ae21ee-483f-4da8-9ab9-6ce9203ee3e0.__CR0,0,724,906_PT0_SX362_V1___.png"&gt;&lt;noscript&gt;&lt;img alt="tumbler mug" src="https://m.media-amazon.com/images/S/aplus-media-library-service-media/77ae21ee-483f-4da8-9ab9-6ce9203ee3e0.__CR0,0,724,906_PT0_SX362_V1___.png"/&gt;&lt;/noscript&gt;   &lt;/div&gt;
+     &lt;/div&gt;
+&lt;div style="clear:both"&gt;&lt;/div&gt;
+   &lt;/div&gt;
+ &lt;/li&gt;   &lt;/ol&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="a-carousel-col a-carousel-right"&gt;&lt;a class="a-button a-button-image a-carousel-button a-carousel-goto-nextpage" tabindex="0" href="#" id="a-autoid-51"&gt;&lt;span class="a-button-inner"&gt;&lt;i class="a-icon a-icon-next"&gt;&lt;span class="a-icon-alt"&gt;Next page&lt;/span&gt;&lt;/i&gt;&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;span class="a-end aok-hidden"&gt;&lt;/span&gt;&lt;/div&gt;   &lt;/div&gt;
+      &lt;/div&gt; </t>
+  </si>
+  <si>
+    <t>BJPKPK-Stainless-Thermo-Insulated-Bottles</t>
+  </si>
+  <si>
+    <t>B08GG5TPXL</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51ZFpR8RQAL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/518toDqRJCL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Zulu Ace Vacuum Insulated Stainless Steel Water Bottle with Removable Base</t>
+  </si>
+  <si>
+    <t>Twist to remove base for easy cleaning and adding ice.
+Leak-proof locking lid with carry loop
+Food-grade silicone spout with Guardian Technology inhibits bacterial growth on the drink surface
+Vacuum insulated stainless keeps drinks cold up to 24 hours.
+All parts BPA free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎ZULU &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1.5 Pounds &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Pink Cashmere &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎3.5"W x 10"H &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Ace &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Stainless Steel &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Hand Wash Only &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Cap Type &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Loop Cap &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Package Dimensions L x W x H &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎13.54 x 4.8 x 3.46 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Package Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎0.46 Kilograms &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Dimensions  LxWxH &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎3.5 x 3 x 10 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎ZULU &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Warranty Description &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Lifetime &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Suggested Users &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Unisex-adult &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Leapfrog Brands &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Part Number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎472-0919-014-6 &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B07PN6QR4N &lt;/td&gt;    &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B07PN6QR4N" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="p87xc8-jj592r-xpeb4b-w2tn6i"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.5 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B07PN6QR4N&amp;quot;}" data-csa-c-id="s75kf-4eptdu-4mtw6y-k9hyng"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.5 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="ss99x7-gsvkme-8l369i-5e2kx0"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;800 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.5 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#3,624 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#267 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;             &lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; February 26, 2019 &lt;/td&gt;    &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_R3DK27529J8RVCKATGVZ_&amp;amp;ASIN=B07PN6QR4N&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="kfs58q-8q93m5-g3nmjf-7suh9"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
+  </si>
+  <si>
+    <t>ZULU-Stainless-Bottle-Removable-Cashmere</t>
+  </si>
+  <si>
+    <t>B07PN6QR4N</t>
+  </si>
+  <si>
+    <t>19.99</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71+CAXmwrdL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Stephen Joseph Stainless Steel Water Bottles, 18 OZ, SHARK</t>
+  </si>
+  <si>
+    <t>MADE FOR LITTLE HANDS: Our Stainless Steel Water Bottles hold up to 18 ounces of liquid, feature a flip top spout to prevent leaks when closed and include a comfortable carry handle that is easy for little hands to hold.
+EASE OF REUSE: Each bottle comes with a second straw for maximum re-use.
+MATERIALS YOU CAN TRUST: BPA, phthalate and PVC free stainless steel water bottles
+DISHWASHER SAFE: Stephen Joseph Stainless Steel Water Bottles are easy to keep clean, our water bottles are dishwasher safe for easy cleaning. Our fun patterns for kids withstand the top rack in the dishwasher.
+CAPACITY and SIZE: 18 ounces, 7” height x 2.875 diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                       &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;   &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;          &lt;tbody&gt;&lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Stephen Joseph &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Stainless Steel, Plastic &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; SHARK &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1.1 Pounds &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Kid &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Machine Wash &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Stephen Joseph Stainless Steel Water Bottles &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1 &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1 Count &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 2.88 x 2.88 x 7 inches &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 10 pounds &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Stephen Joseph &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; B08179M4M1 &lt;/td&gt; &lt;/tr&gt;                          &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; China &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; SJ1175 &lt;/td&gt; &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B08179M4M1" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="lrs5wy-ksdvlh-qirgl3-3rr0vl"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.3 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B08179M4M1&amp;quot;}" data-csa-c-id="3p5wlf-l9qdt4-i2p9tt-5yc2j1"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.3 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="yjpb9t-p9us11-3hfe54-prs7vs"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;652 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.3 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#12,039 in Baby (&lt;a href="/gp/bestsellers/baby-products/ref=pd_zg_ts_baby-products"&gt;See Top 100 in Baby&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#270 in &lt;a href="/gp/bestsellers/baby-products/166781011/ref=pd_zg_hrsr_baby-products"&gt;Baby Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;               &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; November 8, 2019 &lt;/td&gt; &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt;      &lt;div class="a-row a-spacing-base"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Warranty &amp;amp; Support &lt;/h1&gt;  &lt;div class="a-section table-padding"&gt;    If you'd like a copy of the manufacturer's warranty for a product found on Amazon.com, you can contact the manufacturer directly or visit their website for more information. Manufacturer's warranties may not apply in all cases, depending on factors like the use of the product, where the product was purchased, or who you purchased the product from. Please review the warranty carefully, and contact the manufacturer if you have any questions. &lt;/div&gt; &lt;/div&gt;  &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_ZSF6FWA2DK1CCTBQFGGB_&amp;amp;ASIN=B08179M4M1&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="fzulgu-mrb0r5-ab2o2s-ggju5k"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;     </t>
+  </si>
+  <si>
+    <t>Stephen-Joseph-SJ117580-Stainless-Bottles</t>
+  </si>
+  <si>
+    <t>B08179M4M1</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71hk4pqA1mL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71HfYqEE9HL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Guardian Collection by THERMOS Hydration Bottle with Spout 40 Ounce, Matcha Green</t>
+  </si>
+  <si>
+    <t>EXTREMELY DURABLE: Dishwasher safe TRITAN from Eastman* is very dependable and durable. The high quality TRITAN material is easy to clean
+SOFT-GRIP CARRY HANDLE: To keep up with your on-the-go lifestyle, the soft-grip carry handle is perfect for accompanying you wherever the day takes you
+HYGIENICALLY COVERED SPOUT: Help keep germs away with the hygienically covered spout. Perfect for the workday or a good workout at the gym. Also includes a built-in twist cap
+CAPACITY MARKINGS: To reach your hydration goals for the day, there are convenient capacity markings to assist in reaching those goals
+TRUSTED BRAND: For over a century, THERMOS brand products have been making everyday life better, every time. The little things go a long way, so do we</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                       &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;   &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;          &lt;tbody&gt;&lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Guardian Collection by THERMOS &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 2.5 Pounds &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Matcha Green &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Feature &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Manual &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 4.6"W x 9.5"H &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Hydration Bottle with Spout &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Plastic &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1 &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Included Components &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Hydration Bottle &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Hand Wash Only &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Cap Type &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Screw Cap &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 4.1 x 4.6 x 9.5 inches &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 9.6 ounces &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Department &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Unisex-Adult &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Thermos &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; B07XYQLNF5 &lt;/td&gt; &lt;/tr&gt;                          &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; China &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; TP4349 &lt;/td&gt; &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B07XYQLNF5" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="dpy4x7-wg29e7-32xcbj-jrzvqp"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.5 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B07XYQLNF5&amp;quot;}" data-csa-c-id="10lz6q-9k2pf8-58v42u-yyfg4k"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.5 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="gmykyx-ovbq68-7lc45p-g0itc9"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;312 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.5 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#14,813 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#669 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;               &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; September 16, 2019 &lt;/td&gt; &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt;      &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_D9YNRJYWPC0XHJMHXTXB_&amp;amp;ASIN=B07XYQLNF5&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="cgu42l-xj721y-xylgf0-52l80t"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;     </t>
+  </si>
+  <si>
+    <t>Thermos-TP4349GR6-Guardian-Collection-Hydration</t>
+  </si>
+  <si>
+    <t>B07XYQLNF5</t>
+  </si>
+  <si>
+    <t>14.72</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61ExSnQXC8L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61wujNYGxnL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>BUILT Cascade Water Bottle, 18 ounces, Black</t>
+  </si>
+  <si>
+    <t>GREAT FOR HOT AND COLD: The double-wall construction ensures both hot or cold drinks can be kept at optimum temperature for longer. It can keep your drinks cold for 8 hours and hot for 4 hours.
+COMFORT GRIP LID: The silicone grip is designed for a comfortable hold. The threaded lid easily opens and closes and includes a silicone gasket for a leak-proof seal.
+DURABLE CONSTRUCTION: Made of high quality food grade 18/8 stainless steel, double wall vacuum-sealed construction which helps to prevent condensation from forming on the outside of the tumbler.Features a silicone rubber grip that is comfortable to hold.
+EASY TO CLEAN: Designed for easy and convenient cleaning. Both lid and body are dishwaser safe.
+WORRY FREE DRINKING: This tumbler is Food and Lead Safety tested plus it’s PVC, BPA, latex and phthalate-free; 18 Fluid Ounce Capacity.
+CAR CUP FRIENDLY: The bottle stands 9.06" tall and has a diameter of 2.76" which makes it size perfectly to fit in standard sized cup holders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                       &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;   &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;          &lt;tbody&gt;&lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; BUILT &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1.1 Pounds &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Black &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Cascade &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Stainless Steel &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1 &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Included Components &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Cascade Bottle &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Hand Wash Only &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Package Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 9.25 x 2.91 x 2.87 inches &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 10.8 ounces &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Lifetime Brands Inc. &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; B098ZWTV86 &lt;/td&gt; &lt;/tr&gt;                          &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; China &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 5286286 &lt;/td&gt; &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B098ZWTV86" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="yuymt7-zgdk57-ucqacf-239wks"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.6 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B098ZWTV86&amp;quot;}" data-csa-c-id="rpa61g-b893mg-x20oee-7kroui"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.6 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="ga593m-ufdh7q-gbdy3h-r2zy4x"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;152 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.6 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#77,921 in Kitchen &amp;amp; Dining (&lt;a href="/gp/bestsellers/kitchen/ref=pd_zg_ts_kitchen"&gt;See Top 100 in Kitchen &amp;amp; Dining&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#660 in &lt;a href="/gp/bestsellers/kitchen/13880501/ref=pd_zg_hrsr_kitchen"&gt;Insulated Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#1,934 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;               &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; July 8, 2021 &lt;/td&gt; &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt;      &lt;div class="a-row a-spacing-base"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Warranty &amp;amp; Support &lt;/h1&gt;  &lt;div class="a-section table-padding"&gt;    If you'd like a copy of the manufacturer's warranty for a product found on Amazon.com, you can contact the manufacturer directly or visit their website for more information. Manufacturer's warranties may not apply in all cases, depending on factors like the use of the product, where the product was purchased, or who you purchased the product from. Please review the warranty carefully, and contact the manufacturer if you have any questions. &lt;/div&gt; &lt;/div&gt;  &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_H74FKWM02RVV2A19F2AQ_&amp;amp;ASIN=B098ZWTV86&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="2viixp-cqn3po-9j40st-34mh2w"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;     </t>
+  </si>
+  <si>
+    <t>BUILT-Cascade-Water-Bottle-ounces</t>
+  </si>
+  <si>
+    <t>B098ZWTV86</t>
+  </si>
+  <si>
+    <t>18.40</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/6187wD3FncS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/611sfgVVKrS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Thermos 24 Ounce Tritan Hydration Bottle with Meter, Ultra Pink (HP4104UP6)</t>
+  </si>
+  <si>
+    <t>Made from BPA-free, impact resistant and dishwasher durable Eastman Tritan polyester
+Easy opening hygienic push button sipper lid with locking ring
+Rotating meter lets you monitor your daily water consumption
+Ergonomic design for comfortable grip
+24 ounce capacity; Dishwasher safe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                       &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;   &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;          &lt;tbody&gt;&lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; THERMOS &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Tritan &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Ultra Pink &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1.5 Pounds &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Feature &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Alcohol-Free &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Adult &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Microwave Safe &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; HP4104UP6 &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1 &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 3.1"W x 9.8"H &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Reusable &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Sport &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Multi-Sport &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 13.4 Ounce &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 3 x 3.1 x 9.8 inches &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 5.6 ounces &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Department &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Unisex-Adult &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Thermos &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; B00Y1BXNF8 &lt;/td&gt; &lt;/tr&gt;                          &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; China &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; HP4104UP6 &lt;/td&gt; &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B00Y1BXNF8" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="ulr266-hla79g-7wgx2d-rsan3l"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.6 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B00Y1BXNF8&amp;quot;}" data-csa-c-id="1gt3i4-jtxm7n-d74so4-lvb6fi"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.6 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="uvoq91-4uptnn-87kptz-fn897a"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;1,326 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.6 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#2,434 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#196 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;               &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Is Discontinued By Manufacturer &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; No &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; November 21, 2014 &lt;/td&gt; &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt;      &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_YV0QMHK87GE7FX2SY7YZ_&amp;amp;ASIN=B00Y1BXNF8&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="43oxug-q985kh-ugc0oq-tozlg0"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;     </t>
+  </si>
+  <si>
+    <t>Thermos-Ounce-Tritan-Hydration-Bottle</t>
+  </si>
+  <si>
+    <t>B00Y1BXNF8</t>
+  </si>
+  <si>
+    <t>11.99</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/7115dmQf6OL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71AyCRKsb7L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>O2COOL Mist 'N Sip Misting Water Bottle 2-in-1 Mist And Sip Function With No Leak Pull Top Spout (Tie Dye)</t>
+  </si>
+  <si>
+    <t>2-IN-1 FUNCTION : The Arctic Squeeze Mist 'N Sip Bottle offers a unique 2-in-1 function. Perfect for bicycling, sports and other outdoor activities, the bottle provides you with a high flow rate of water and a fine mist to cool you down.
+HIGH-QUALITY CONSTRUCTION : Made utilizing low-density polyethylene (LDPE) plastic, the Mist ‘N Sip is lightweight, without sacrificing its strength or durability. Food-safe, BPA, BPS and phthalate free to ensure a safe drinking experience.
+COOLS BEVERAGES LONGER : Perfect for hot days, this bottle boasts a double-wall insulation that keeps beverages colder for longer periods of time. In fact, this construction eliminates sweating and keeps beverages cold for up to 50% longer!
+PERFECT ACCESSORY : Available in a variety of bright colors and patterns, the large opening makes it easy to fill with ice and water, while the easy-to-squeeze trigger delivers a refreshing mist when you need to cool down.
+FLEXIBLE BOTTLE : Easy to squeeze with a no-leak spout, this lightweight bottle is great for any indoor or outdoor activity. It’s outfitted with a carry loop for easy transport anywhere you go!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hr noshade="true" size="1" class="bucketDivider"&gt;
+         &lt;h2&gt;From the manufacturer&lt;/h2&gt;                                     &lt;div class="aplus-v2 desktop celwidget" cel_widget_id="aplus" data-csa-c-id="jimbtk-qabkcy-apm5x8-ps89jd"&gt;
+        &lt;style type="text/css"&gt;
+.aplus-v2 {
+    display: block;
+    margin-left: auto;
+    margin-right: auto;
+}
+.aplus-v2 .aplus-3p-fixed-width {
+    width: 970px;
+}
+.aplus-v2 .aplus-3p-fixed-width.aplus-module-wrapper {
+  margin-left: auto;
+  margin-right: auto;
+}
+&lt;/style&gt;
+                               &lt;script&gt;
+    if(P) {
+        P.when("a-expander").execute(function (expander) {
+            expander.initializeExpanders();
+        });
+    }
+&lt;/script&gt;
+         &lt;div class="celwidget aplus-module 3p-module-b aplus-standard" cel_widget_id="aplus-3p-module-b" data-csa-c-id="p4zosh-onret8-8i7b5n-e7iwpi"&gt;
+                            &lt;div class="aplus-module-wrapper aplus-3p-fixed-width"&gt;
+                                      &lt;h3 class="a-spacing-mini"&gt; 20 oz Insulated Water Bottle With Fine Mist Spray Function &lt;/h3&gt;                                &lt;img alt="mist " src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-spacing-base a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media/vc/484beb42-fa39-4914-a85c-159f55b53156.__CR0,187,1614,998_PT0_SX970_V1___.jpg"&gt;&lt;noscript&gt;&lt;img alt="mist " src="https://m.media-amazon.com/images/S/aplus-media/vc/484beb42-fa39-4914-a85c-159f55b53156.__CR0,187,1614,998_PT0_SX970_V1___.jpg"/&gt;&lt;/noscript&gt;                                                                     &lt;p class="a-spacing-base"&gt; &lt;/p&gt;&lt;ul class="a-unordered-list a-vertical"&gt;&lt;li&gt;&lt;span class="a-list-item"&gt;&lt;span class="a-text-bold"&gt;2-IN-1 FUNCTION :&lt;/span&gt; The arctic squeeze mist 'N sip bottle offers a unique 2-in-1 function. Perfect for bicycling, sports and other outdoor activities, The bottle provides you with a high flow rate of water and a fine mist to cool you down.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;&lt;/p&gt;        &lt;p class="a-spacing-base"&gt; &lt;/p&gt;&lt;ul class="a-unordered-list a-vertical"&gt;&lt;li&gt;&lt;span class="a-list-item"&gt;&lt;span class="a-text-bold"&gt;HIGH QUALITY CONSTRUCTION &lt;/span&gt;: Our bottles are made utilizing low-density polyethylene (LDPE) plastic, the mist ‘N sip is lightweight, without sacrificing its strength or durability. Food-safe, BPA, bps and phthalate free to ensure a safe drinking experience&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;&lt;/p&gt;        &lt;p class="a-spacing-base"&gt; &lt;/p&gt;&lt;ul class="a-unordered-list a-vertical"&gt;&lt;li&gt;&lt;span class="a-list-item"&gt;&lt;span class="a-text-bold"&gt;KEEPS WATER COOLER, LONGER &lt;/span&gt;: Perfect for hot days, this bottle boasts a double-wall insulation that keeps beverages colder for longer periods of time. In fact, this construction eliminates sweating and keeps beverages cold for up to 50% longer!&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;&lt;/p&gt;        &lt;p class="a-spacing-base"&gt; &lt;/p&gt;&lt;ul class="a-unordered-list a-vertical"&gt;&lt;li&gt;&lt;span class="a-list-item"&gt;&lt;span class="a-text-bold"&gt;HOT WEATHER MUST HAVE :&lt;/span&gt; Mist 'N Sip is available in a variety of bright colors and patterns, The large opening makes it easy to fill with ice and water, while the easy-to-squeeze trigger delivers a Refreshing mist when you need to cool down.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;&lt;/p&gt;        &lt;p class="a-spacing-base"&gt; &lt;/p&gt;&lt;ul class="a-unordered-list a-vertical"&gt;&lt;li&gt;&lt;span class="a-list-item"&gt;&lt;span class="a-text-bold"&gt;FLEXIBLE BOTTLE :&lt;/span&gt; Easy to squeeze with a no-leak, pull-top spout, This lightweight bottle is great for any indoor or outdoor activity. It’s outfitted with a carry loop for easy transport anywhere you go and a new locking feature for the misting function!&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;&lt;/p&gt;        &lt;p class="a-spacing-base"&gt; &lt;/p&gt;&lt;ul class="a-unordered-list a-vertical"&gt;&lt;li&gt;&lt;span class="a-list-item"&gt;&lt;span class="a-text-bold"&gt;NEW DESIGN : &lt;/span&gt;The Mist 'N Sip now has NEW features! ! The low profile top can come apart for more detailed cleaning. The mouth piece has a silicone cap cover to prevent leaks and keep your mouth piece clean and protected.  The decorative mylar lining provides insulation in between the inner and outer wall of the bottle. keeping water cooler up to 50% longer!&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;&lt;/p&gt;    &lt;/div&gt;
+      &lt;/div&gt;
+                 &lt;div class="celwidget aplus-module 3p-module-b aplus-standard" cel_widget_id="aplus-3p-module-b" data-csa-c-id="3z53yf-nyk4dl-fvlm84-w19w3t"&gt;
+                            &lt;div class="aplus-module-wrapper aplus-3p-fixed-width"&gt;
+                                                                    &lt;img alt="misting " src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-spacing-base a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media/vc/e12f33ba-07e8-4c8e-8e85-8c9590e99592.__CR0,458,1200,742_PT0_SX970_V1___.jpg"&gt;&lt;noscript&gt;&lt;img alt="misting " src="https://m.media-amazon.com/images/S/aplus-media/vc/e12f33ba-07e8-4c8e-8e85-8c9590e99592.__CR0,458,1200,742_PT0_SX970_V1___.jpg"/&gt;&lt;/noscript&gt;                                     &lt;h3 class="a-spacing-mini"&gt; Misting Trigger Is Easy To Use, And Features A Lock Function  &lt;/h3&gt;                                    &lt;/div&gt;
+      &lt;/div&gt;
+                 &lt;div class="celwidget aplus-module 3p-module-b aplus-standard" cel_widget_id="aplus-3p-module-b" data-csa-c-id="5kwnuk-kg57z6-l06m97-osmieu"&gt;
+                            &lt;div class="aplus-module-wrapper aplus-3p-fixed-width"&gt;
+                                                                    &lt;img alt="carry" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-spacing-base a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media/vc/44df2bdd-a5c1-47e4-8c94-11a3558a5a61.__CR0,383,1200,742_PT0_SX970_V1___.jpg"&gt;&lt;noscript&gt;&lt;img alt="carry" src="https://m.media-amazon.com/images/S/aplus-media/vc/44df2bdd-a5c1-47e4-8c94-11a3558a5a61.__CR0,383,1200,742_PT0_SX970_V1___.jpg"/&gt;&lt;/noscript&gt;                                     &lt;h3 class="a-spacing-mini"&gt; Carry Loop Is Comfortable And Can Be Used With A Carabiner To Clip To A Bag.  &lt;/h3&gt;                                 &lt;/div&gt;
+      &lt;/div&gt;
+                 &lt;div class="celwidget aplus-module 3p-module-b aplus-standard" cel_widget_id="aplus-3p-module-b" data-csa-c-id="9iz529-3zlkoc-p07sb9-ndtybk"&gt;
+                            &lt;div class="aplus-module-wrapper aplus-3p-fixed-width"&gt;
+                                                                    &lt;img alt="bott" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-spacing-base a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media/vc/e0dfe002-3a60-44ae-964b-d7615d3b4729.__CR0,50,2048,1267_PT0_SX970_V1___.jpg"&gt;&lt;noscript&gt;&lt;img alt="bott" src="https://m.media-amazon.com/images/S/aplus-media/vc/e0dfe002-3a60-44ae-964b-d7615d3b4729.__CR0,50,2048,1267_PT0_SX970_V1___.jpg"/&gt;&lt;/noscript&gt;                                     &lt;h3 class="a-spacing-mini"&gt; The decorative mylar lining provides insulation in between the inner and outer wall of the bottle. keeping water cooler up to 50% longer! &lt;/h3&gt;                                    &lt;/div&gt;
+      &lt;/div&gt;
+                 &lt;div class="celwidget aplus-module 3p-module-b aplus-standard" cel_widget_id="aplus-3p-module-b" data-csa-c-id="ovo2tt-lqx46y-z9kbu-j2tcsy"&gt;
+                            &lt;div class="aplus-module-wrapper aplus-3p-fixed-width"&gt;
+                                                                    &lt;img alt="bike" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-spacing-base a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media/vc/bcf69277-9c35-41b8-8b98-437102d80ff6.__CR0,47,1200,742_PT0_SX970_V1___.jpg"&gt;&lt;noscript&gt;&lt;img alt="bike" src="https://m.media-amazon.com/images/S/aplus-media/vc/bcf69277-9c35-41b8-8b98-437102d80ff6.__CR0,47,1200,742_PT0_SX970_V1___.jpg"/&gt;&lt;/noscript&gt;                                     &lt;h3 class="a-spacing-mini"&gt; Bottles Fit In Most Bicycle Beverage Holders!  &lt;/h3&gt;                                    &lt;/div&gt;
+      &lt;/div&gt;
+                    &lt;/div&gt; </t>
+  </si>
+  <si>
+    <t>O2COOL-ArcticSqueeze-Insulated-Mist-Misting</t>
+  </si>
+  <si>
+    <t>B083TBYPW8</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41iK8IkgABS._AC_SL1080_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61P02oW4NlL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Day 1 Fitness Stainless Steel Water Bottle Wide Mouth with 2 LIDS (20oz, 32oz, or 40oz) - 3 Size, 8 Color Options - Vacuum Insulated, Double Wall, Powder Coated Sweat Proof Thermos</t>
+  </si>
+  <si>
+    <t>SUPERIOR STAINLESS STEEL BOTTLE: This vacuum insulated water bottle by Day 1 Fitness is designed to fit your lifestyle, made with high-quality 18/8 stainless steel that is rust and corrosion resistant, with a matte powder finish
+DOUBLE-WALL INSULATION: With a unique, double-walled and vacuum insulated design, along with a copper insulation layer, our outdoor water bottle will keep beverages hot or cold for hours, allowing refreshment all day long
+2 LIDS: In addition to a stainless steel lid, this versatile insulated thermos comes with a button push open leak-proof lid, perfect for enjoying hot beverages, and is included with 20 oz, 32 oz, and 40 oz water bottles
+PERFECT SIZE FOR TRAVEL: Our insulated water bottle features a wide mouth that will easily accommodate ice cubes and backcountry water filters, and is offered in 3 sizes to cover your thirst needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Day 1 Fitness &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Other &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎G) Teal &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2.5 Pounds &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Any Age Group &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎40 oz bottle &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Reusable &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Style &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎C) 1 Pack - 40 oz. &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Sport Type &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Camping &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 Count &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Package Dimensions L x W x H &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎12.99 x 4.13 x 3.94 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Package Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎0.62 Kilograms &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Dimensions  LxWxH &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎4.29 x 4.29 x 13.03 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Day 1 Fitness &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Warranty Description &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎30 day return policy &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Suggested Users &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Unisex-adult &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Day 1 Fitness &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Included Components &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Water bottle, 2 lids &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎40 oz. &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B07QD2XCC4 &lt;/td&gt;    &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B07QD2XCC4" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="urumvn-o0cuvt-7jckzq-dxc072"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.6 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B07QD2XCC4&amp;quot;}" data-csa-c-id="8ng4mk-e1rk8x-2pwxq1-8ynmly"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.6 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="yrntqt-4eg59j-z77jza-36ljpn"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;1,156 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.6 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#56,479 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#1,534 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;             &lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; August 15, 2019 &lt;/td&gt;    &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_K1AWK3CCYE3HZXZN322X_&amp;amp;ASIN=B07QD2XCC4&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="kae2yj-p5lln2-7qvkz3-cfnc9o"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
+  </si>
+  <si>
+    <t>Day-Fitness-Double-Mouth-Bottle</t>
+  </si>
+  <si>
+    <t>B07QD2XCC4</t>
+  </si>
+  <si>
+    <t>14.81</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/31R4gTzsJZL._AC_SR320,320_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/31uQFIXp0mL._AC_SR160,160_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61fTJ4-Km-L.__AC_SX300_SY300_QL70_FMwebp_.jpg</t>
+  </si>
+  <si>
+    <t>Owala FreeSip Insulated Stainless Steel Water Bottle with Straw for Sports and Travel, BPA-Free, 24-Ounce, Grayt</t>
+  </si>
+  <si>
+    <t>About this item
+24-ounce insulated stainless-steel water bottle with a FreeSip spout and push-button lid with lock
+Patented FreeSip spout designed for either sipping upright through the built-in straw or tilting back to swig from the spout opening
+Protective push-to-open lid keeps spout clean; convenient carry loop doubles as a lock
+Double-wall insulation keeps drinks cold for up to 24 hours; wide opening for cleaning and adding ice; cup holder-friendly base
+BPA and phthalate-free; hand wash cup, dishwasher-safe lid; not for use with hot liquids
+› See more product details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Owala &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Stainless Steel &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Grayt &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎24 Fluid Ounces &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Any Age Group &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Hand Wash Only &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎FreeSip Insulated Stainless Steel Water Bottle &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎3.39"W x 10.6"H &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Reusable &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1.0 Count &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; 	Manufacturer	 &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎BlenderBottle &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Part Number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎C05263 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎14.3 ounces &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎3.24 x 3.24 x 10.68 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎China &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎C05263 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎24-Ounce &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Package Quantity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number Of Pieces &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Included Components &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Water Bottle &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Required? &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B09VCTFJJD &lt;/td&gt;    &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B09VCTFJJD" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="ldabe8-h5qc2g-89li9-czagbt"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.8 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B09VCTFJJD&amp;quot;}" data-csa-c-id="mi5n99-zi2txb-nuiq5x-s9iu8v"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-5"&gt;&lt;span class="a-icon-alt"&gt;4.8 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="2wmxrq-cgkgah-1t1n0f-27o50d"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;18,276 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.8 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#23 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#5 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#7 in &lt;a href="/gp/bestsellers/kitchen/13880501/ref=pd_zg_hrsr_kitchen"&gt;Insulated Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;                           &lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; March 11, 2022 &lt;/td&gt;    &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;     &lt;div class="a-section"&gt;  &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Warranty &amp;amp; Support &lt;/h1&gt;     &lt;div class="a-section table-padding"&gt;    If you'd like a copy of the manufacturer's warranty for a product found on Amazon.com, you can contact the manufacturer directly or visit their website for more information. Manufacturer's warranties may not apply in all cases, depending on factors like the use of the product, where the product was purchased, or who you purchased the product from. Please review the warranty carefully, and contact the manufacturer if you have any questions. &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_TGWHH3X9VASNHJSZHJRB_&amp;amp;ASIN=B09VCTFJJD&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="vjzhni-vox9tk-cvf99i-qxebgc"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
+  </si>
+  <si>
+    <t>Owala-Insulated-Stainless-BPA-Free-24-Ounce</t>
+  </si>
+  <si>
+    <t>B09VCTFJJD</t>
+  </si>
+  <si>
+    <t>21.58</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41uJK4mJjXL._AC_SL1080_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71trxeIOsKL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61ncZzwWxmL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Day 1 Fitness Stainless Steel Water Bottle Standard Mouth, Carabiner Clip (16, 24, or 32oz) 3 Size, 8 Color, and Multi-pack Options – Vacuum Insulated, Double Walled, Powder-Coated Sweat Proof Thermos</t>
+  </si>
+  <si>
+    <t>SUPERIOR STAINLESS STEEL BOTTLE: This vacuum insulated water bottle by Day 1 Fitness is designed to fit your lifestyle, made with high-quality 18/8 stainless steel that is rust and corrosion resistant, with a matte powder finish
+DOUBLE-WALL INSULATION: With a unique, double-walled and vacuum insulated design, along with a copper insulation layer, our outdoor water bottle will keep beverages hot or cold for hours, allowing refreshment all day long
+CARABINER CLIP: This versatile insulated thermos comes with a screw on lid with finger loop opening plus a carabiner clip, making it easy to clip and go and is included with 16 oz, 24 oz, and 32 oz standard mouth water bottles
+PERFECT SIZE FOR TRAVEL: Our insulated water bottle features a standard mouth and is large enough to offer the ounces you need for your trekking and with a carabineer clip, you can hook to your backpack to keep hands free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Day 1 Fitness &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1.4 Pounds &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎E) Purple &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎23 oz bottle &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Other &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Included Components &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Water bottle &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Hand Wash Only &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Cap Type &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Screw Cap &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Package Dimensions L x W x H &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎11.2 x 3.4 x 3.1 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Package Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎0.34 Kilograms &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Dimensions  LxWxH &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎3.15 x 3.15 x 11.22 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Day 1 Fitness &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Warranty Description &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎30 day return policy &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Suggested Users &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Unisex-adult &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Day 1 Fitness &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Style &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎B) 1 Pack - 24 oz. &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎23 oz. &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Sport Type &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Camping &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B07QB4P4DV &lt;/td&gt;    &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B07QB4P4DV" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="gk0vcy-984kue-hjul6e-d2ccx0"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.6 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B07QB4P4DV&amp;quot;}" data-csa-c-id="u24stz-d42bzb-5srlpr-4ofd5k"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.6 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="qmxbnd-z7182l-u49vqc-n47drx"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;1,283 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.6 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#53,610 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#1,462 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;             &lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; November 11, 2019 &lt;/td&gt;    &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_YSWYSRE8C1DWQB4PRHBM_&amp;amp;ASIN=B07QB4P4DV&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="wwkqdu-z4fpvc-eh7ma1-d5sfyj"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
+  </si>
+  <si>
+    <t>Day-Fitness-Double-Standard-Bottle</t>
+  </si>
+  <si>
+    <t>B07QB4P4DV</t>
+  </si>
+  <si>
+    <t>12.99</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41wQAIXq8bL._AC_SR320,320_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41wQAIXq8bL._AC_SR160,160_.jpg</t>
+  </si>
+  <si>
+    <t>THERMOS FUNTAINER 16 Ounce Plastic Hydration, Raspberry</t>
+  </si>
+  <si>
+    <t>· DURABLE FOR DAILY USE: High quality durable Tritan from Eastman construction is built to handle drops, dings and assorted roughhousing
+· KID-FRIENDLY DESIGN: Choose from a variety of fun colors or patterns! This water bottle is lightweight and compact with a push button lid so it’s easy to carry and open. The integrated carry handle features a soft touch grip
+HYGIENIC COVERED SPOUT: Help keep germs away with a hygienically covered spout
+PROTECT WHAT YOU LOVE: This THERMOS KIDS gear is made with durable, dishwasher safe materials meant to keep lunch and drinks how they like them. The lunchtime puzzle is officially solved
+Made from durable and dishwasher safe Tritan from Eastman; Not for hot liquids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                       &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;   &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;          &lt;tbody&gt;&lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; THERMOS &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Plastic &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Raspberry &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 16 Fluid Ounces &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Feature &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Dishwasher Safe &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Kid &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Machine Wash &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; FUNTAINER 16 Ounce Plastic Hydration &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1 &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 2.8"W x 7.4"H &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Reusable &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Style &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Bottle &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1 Count &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 7.4 x 2.8 x 2.8 inches &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 4.6 ounces &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Thermos &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; B08VFG1WFH &lt;/td&gt; &lt;/tr&gt;                          &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; China &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; GP4040RS6 &lt;/td&gt; &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B08VFG1WFH" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="er897q-x6jl2u-ndb41a-vm8qcc"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.6 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B08VFG1WFH&amp;quot;}" data-csa-c-id="mwvxf4-4u4pyc-mfcna3-2p1htb"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.6 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="gw2lva-rjdqad-uhiq90-rut9uy"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;923 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.6 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#332 in Kitchen &amp;amp; Dining (&lt;a href="/gp/bestsellers/kitchen/ref=pd_zg_ts_kitchen"&gt;See Top 100 in Kitchen &amp;amp; Dining&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#19 in &lt;a href="/gp/bestsellers/kitchen/13880501/ref=pd_zg_hrsr_kitchen"&gt;Insulated Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#37 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;               &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; January 30, 2021 &lt;/td&gt; &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt;      &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_NA158GBAD9K28H8F6B3D_&amp;amp;ASIN=B08VFG1WFH&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="cznuby-x6tri1-o4p34x-jaoylz"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;     </t>
+  </si>
+  <si>
+    <t>Thermos-Funtainer-Plastic-Hydration-Raspberry</t>
+  </si>
+  <si>
+    <t>B08VFG1WFH</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/616QuYpLQhL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/614ONR0DltL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Ak-7PepOL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Kid Basix Safe Sporter, Lunch &amp; Sport Stainless Steel Water Bottle, Easy Pull Spout, Mud Cap, Dishwasher Safe, Holds 16oz, Navy</t>
+  </si>
+  <si>
+    <t>SMART FEATURES: Mud cap to keep the spout clean, easy pull sports spout, wide mouth neck, slim waist, silicone grip for a secure hold, dent free coaster base
+DESIGNED FOR KIDS &amp; ADULTS: Modern design, wide neck for easy cleaning &amp; ice cubes, 8 fresh colors (blue, fuchsia, lime, purple, red, orange, teal &amp; navy) for the whole family; 100% dishwasher-safe; Works great for water, juice, tea or other drinks
+SAFE MATERIALS &amp; TWO SIZES: Available in 12 oz best for lunch boxes or 16 oz best for sports, school, work or gym; The safe Sporter is made of reusable, food-grade 18/8 stainless steel; The single-walled design is lightweight and durable
+ECO-FRIENDLY: the Sporter is made of clean, non-leaching stainless steel; All materials are BPA/phthalate &amp; lead free and are safe for food/drink; Make it a trash free lunch with Kid Basix reusable products
+TRUSTED BRAND: Kid Basix by New Wave is a family-owned business based in beautiful Colorado; The first to create stainless steel kids' products, Kid Basix has been sustainably and safely serving adults, big kids and toddlers since 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Kid Basix &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Stainless Steel &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Navy blue &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎16 Ounces &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Feature &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Pull Top &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Adults and kids &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Care instructions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Machine Wash &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Recommended Uses For Product &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Lunch, school, work, sports, on the go &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Reusable &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎16.0 Fl Oz &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2.75 x 2.75 x 8.5 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎796515002751 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material Type &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Stainless Steel &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Additional product features &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Pull Top &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries required &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎6.4 ounces &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country/Region of origin &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎China &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B08VPV29JB &lt;/td&gt;    &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B08VPV29JB" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="bp7moy-6wakxk-ms76ir-1k4plq"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="3.9 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B08VPV29JB&amp;quot;}" data-csa-c-id="errtj0-cw7jcy-3kadao-25aeru"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4"&gt;&lt;span class="a-icon-alt"&gt;3.9 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="uxn35z-m4jk26-ulj3bw-x6fvse"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;67 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 3.9 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#98,944 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#2,212 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;                       &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_P72SFRM383PQ2MGM2VDG_&amp;amp;ASIN=B08VPV29JB&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="a937gl-2mf87f-q44x60-pakn3d"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
+  </si>
+  <si>
+    <t>Kid-Basix-Sporter-Stainless-Dishwasher</t>
+  </si>
+  <si>
+    <t>B08VPV29JB</t>
+  </si>
+  <si>
+    <t>13.78</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51GfcP3YQwS._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/611-ff2+JcS._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>O2COOL Mist 'N Sip Misting Water Bottle 2-in-1 Mist And Sip Function With No Leak Pull Top Spout (Crackle Blue)</t>
+  </si>
+  <si>
+    <t>2-IN-1 FUNCTION : The arctic squeeze mist 'N sip bottle offers a unique 2-in-1 function. Perfect for bicycling, sports and other outdoor activities, The bottle provides you with a high flow rate of water and a fine mist to cool you down.
+HIGH QUALITY CONSTRUCTION : Our bottles are made utilizing low-density polyethylene (LDPE) plastic, the mist ‘N sip is lightweight, without sacrificing its strength or durability. Food-safe, BPA, bps and phthalate free to ensure a safe drinking experience
+KEEPS WATER COOLER, LONGER : Perfect for hot days, this bottle boasts a double-wall insulation that keeps beverages colder for longer periods of time. In fact, this construction eliminates sweating and keeps beverages cold for up to 50% longer!
+HOT WEATHER MUST HAVE : Mist 'N Sip is available in a variety of bright colors and patterns, The large opening makes it easy to fill with ice and water, while the easy-to-squeeze trigger delivers a Refreshing mist when you need to cool down.
+FLEXIBLE BOTTLE : Easy to squeeze with a no-leak, pull-top spout, This lightweight bottle is great for any indoor or outdoor activity. It’s outfitted with a carry loop for easy transport anywhere you go and a new locking feature for the misting function!
+NEW DESIGN : The Mist 'N Sip now has NEW features! ! The low profile top can come apart for more detailed cleaning. The mouth piece has a silicone cap cover to prevent leaks and keep your mouth piece clean and protected. The Trigger has a lock function- t</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hr noshade="true" size="1" class="bucketDivider"&gt;
+         &lt;h2&gt;From the manufacturer&lt;/h2&gt;                                     &lt;div class="aplus-v2 desktop celwidget" cel_widget_id="aplus" data-csa-c-id="xwjie5-l2rk5e-qipick-ddzhrt"&gt;
+        &lt;style type="text/css"&gt;
+.aplus-v2 {
+    display: block;
+    margin-left: auto;
+    margin-right: auto;
+}
+.aplus-v2 .aplus-3p-fixed-width {
+    width: 970px;
+}
+.aplus-v2 .aplus-3p-fixed-width.aplus-module-wrapper {
+  margin-left: auto;
+  margin-right: auto;
+}
+&lt;/style&gt;
+      &lt;style type="text/css"&gt;
+.aplus-v2 .launchpad-module { max-width: 1000px; margin-left: auto; margin-right: auto; padding-top: 15px; padding-bottom: 15px; }
+.aplus-v2 .launchpad-text-container { margin-left: auto; margin-right: auto; text-align: justify; -moz-text-align-last: center; text-align-last: center; }
+.aplus-v2 .launchpad-text-center { text-align: center; }
+.aplus-v2 .launchpad-text-left-justify { text-align: justify; -moz-text-align-last: left; text-align-last: left; }
+html[dir='rtl'] .aplus-v2 .launchpad-text-left-justify { text-align: justify; -moz-text-align-last: right; text-align-last: right; }
+.aplus-v2 .launchpad-video-container { width: 100%; }
+.aplus-v2 .launchpad-module-video .aplusAiryVideoPlayer { margin-left: auto; margin-right: auto; padding-bottom: 25px; }
+.aplus-v2 .launchpad-module-three-stack .launchpad-module-stackable-column { display: inline-block; width: 32%; vertical-align: top; padding-left: 10px; padding-right: 10px; }
+.aplus-v2 .launchpad-module-three-stack .launchpad-module-three-stack-container { display: table; text-align: center; margin-left: auto; margin-right: auto; }
+.aplus-v2 .launchpad-module-three-stack .launchpad-module-three-stack-container img { max-width: none; }
+.aplus-v2 .launchpad-module-three-stack .launchpad-module-three-stack-block { margin-bottom: 14px; }
+.aplus-v2 .launchpad-module-three-stack .launchpad-module-three-stack-detail { display: table-caption; caption-side: bottom; }
+.aplus-v2 .launchpad-column-container { vertical-align: middle; }
+.aplus-v2 .launchpad-column-image-container { width: 34.5%; }
+.aplus-v2 .launchpad-column-text-container { width: 64.5%; padding: 0 150px; }
+.aplus-v2 .launchpad-module-left-image .launchpad-column-text-container { padding-right: 0; }
+.aplus-v2 .launchpad-module-right-image .launchpad-column-text-container { padding-left: 0; }
+.aplus-v2 .launchpad-about-the-startup h5 { font-weight: normal; font-style: italic; }
+.aplus-v2 .launchpad-faq h2 { color: #ffa500; }
+.aplus-v2 .launchpad-module-person-block { margin-bottom: 10px; }
+&lt;/style&gt;
+      &lt;style type="text/css"&gt;
+    .aplus-v2 {
+      display:block;
+      margin-left:auto;
+      margin-right:auto;
+      word-wrap: break-word;
+      overflow-wrap: break-word;
+      word-break: break-word;
+    }
+    /* Undo this for tech-specs because it breaks table layout */
+    .aplus-v2 .aplus-standard .aplus-tech-spec-table { word-break: initial; }
+    .aplus-v2 .aplus-standard .aplus-module-wrapper {text-align:inherit; display:block; margin-right:auto;margin-left:auto;}
+    .aplus-v2 .aplus-standard.aplus-module.module-1,
+    .aplus-v2 .aplus-standard.aplus-module.module-2,
+    .aplus-v2 .aplus-standard.aplus-module.module-3,
+    .aplus-v2 .aplus-standard.aplus-module.module-4,
+    .aplus-v2 .aplus-standard.aplus-module.module-6,
+    .aplus-v2 .aplus-standard.aplus-module.module-7,
+    .aplus-v2 .aplus-standard.aplus-module.module-8,
+    .aplus-v2 .aplus-standard.aplus-module.module-9,
+    .aplus-v2 .aplus-standard.aplus-module.module-10,
+    .aplus-v2 .aplus-standard.aplus-module.module-11,
+    .aplus-v2 .aplus-standard.aplus-module.module-12{padding-bottom:12px; margin-bottom:12px;}
+    .aplus-v2 .aplus-standard.aplus-module:last-child{border-bottom:none}
+    .aplus-v2 .aplus-standard.aplus-module {min-width:979px;}
+    /* aplus css needed to override aui on the detail page */
+    .aplus-v2 .aplus-standard.aplus-module table.aplus-chart.a-bordered.a-vertical-stripes {border:none;}
+    .aplus-v2 .aplus-standard.aplus-module table.aplus-chart.a-bordered.a-vertical-stripes td {background:none;}
+    .aplus-v2 .aplus-standard.aplus-module table.aplus-chart.a-bordered.a-vertical-stripes td.selected {background-color:#ffd;}
+    .aplus-v2 .aplus-standard.aplus-module table.aplus-chart.a-bordered.a-vertical-stripes td:first-child {background:#f7f7f7; font-weight:bold;}
+    .aplus-v2 .aplus-standard.aplus-module table.aplus-chart.a-bordered.a-vertical-stripes tr th {background:none; border-right:none;}
+    .aplus-v2 .aplus-standard.aplus-module table.aplus-chart.a-bordered tr td,.aplus-v2 .aplus-standard .aplus-module table.aplus-chart.a-bordered tr th {border-bottom:1px dotted #999;}
+    /* A+ Template - General Module CSS */
+    .aplus-v2 .aplus-standard .apm-top {height:100%; vertical-align:top;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-top {padding-left: 0px; padding-right: 3px}
+    .aplus-v2 .aplus-standard .apm-center {height:100%; vertical-align:middle; text-align:center;}
+    .aplus-v2 .aplus-standard .apm-row {width:100%; display:inline-block;}
+    .aplus-v2 .aplus-standard .apm-wrap {width:100%;}
+    .aplus-v2 .aplus-standard .apm-fixed-width {width:969px;}
+    .aplus-v2 .aplus-standard .apm-floatleft {float:left;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-floatleft {float:right;}
+    .aplus-v2 .aplus-standard .apm-floatright {float:right;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-floatright {float:left;}
+    .aplus-v2 .aplus-standard .apm-floatnone {float:none;}
+    .aplus-v2 .aplus-standard .apm-spacing img {border:none;}
+    .aplus-v2 .aplus-standard .apm-leftimage {float:left; display:block; margin-right:20px; margin-bottom:10px;width: 300px;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-leftimage {float: right; margin-right: 0px; margin-left:20px;}
+    .aplus-v2 .aplus-standard .apm-centerimage {text-align: center; width:300px; display:block; margin-bottom:10px;}
+    .aplus-v2 .aplus-standard .apm-centerthirdcol {min-width:359px; display:block}
+    .aplus-v2 .aplus-standard .apm-centerthirdcol ul,
+    .aplus-v2 .aplus-standard .apm-centerthirdcol ol {margin-left: 334px;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-centerthirdcol ul,
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-centerthirdcol ol {margin-left: 0px; margin-right: 334px;}
+    .aplus-v2 .aplus-standard .apm-rightthirdcol {float:right; width:230px; padding-left:30px; margin-left:30px; border-left:1px solid #dddddd;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-rightthirdcol {float: left; padding-left: 0px; padding-right:30px; margin-left:0px; margin-right:30px; border-left:0px; border-right:1px solid #dddddd;}
+    .aplus-v2 .aplus-standard .apm-lefttwothirdswrap {width:709px; display:block;}
+    .aplus-v2 .aplus-standard .apm-lefthalfcol {width:480px; padding-right:30px; display:block; float:left;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-lefthalfcol {padding-left:30px; float:right;}
+    .aplus-v2 .aplus-standard .apm-righthalfcol {width:480px; display:block; float:left;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-righthalfcol {float:right;}
+    .aplus-v2 .aplus-standard .apm-eventhirdcol {width:300px; display:block;}
+    .aplus-v2 .aplus-standard .apm-eventhirdcol-table {border-spacing: 0px 0px; border-collapse: collapse;}
+    .aplus-v2 .aplus-standard .apm-eventhirdcol-table tr td {vertical-align: top;}
+    .aplus-v2 .aplus-standard .apm-fourthcol {width:220px; float:left;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-fourthcol {float:right;}
+    .aplus-v2 .aplus-standard .apm-fourthcol .apm-fourthcol-image {position:relative;}
+    .aplus-v2 .aplus-standard .apm-fourthcol img {display:block; margin:0 auto;}
+    .aplus-v2 .aplus-standard .apm-fourthcol-table {border-spacing: 0px 0px; border-collapse: collapse;}
+    .aplus-v2 .aplus-standard .apm-fourthcol-table tr td {vertical-align: top;}
+    .aplus-v2 .aplus-standard .apm-listbox {width:100%;}
+    .aplus-v2 .aplus-standard .apm-iconheader {float:left; padding-left:10px;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-iconheader {float:right; padding-left:0px; padding-right: 10px}
+    .aplus-v2 .aplus-standard .apm-spacing ul:last-child,.aplus-v2 .aplus-standard ol:last-child {margin-bottom:0 !important;}
+    .aplus-v2 .aplus-standard .apm-spacing ul,.aplus-v2 .aplus-standard ol {padding:0 !important;}
+    .aplus-v2 .aplus-standard .apm-spacing ul {margin:0 0 18px 18px !important;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-spacing ul {margin:0 18px 18px 0 !important;}
+    .aplus-v2 .aplus-standard .apm-spacing ul li,.aplus-v2 .aplus-standard ol li {word-wrap:break-word; margin:0 !important;}
+    .aplus-v2 .aplus-standard .apm-spacing ul li {margin:0 !important;}
+    /* A+ Template - Module 1 Sepcific CSS */
+    .aplus-v2 .aplus-standard .amp-centerthirdcol-listbox {display:inline-block; width:359px;}
+    /* A+ Template - Module 2/3 Specific CSS */
+    .aplus-v2 .aplus-standard .apm-sidemodule {text-align:left; margin:0 auto; width:970px; padding:0; background-color:#ffffff; position:relative;}
+    .aplus-v2 .aplus-standard .apm-sidemodule {text-align:inherit;}
+    .aplus-v2 .aplus-standard .apm-sidemodule-textright {position:relative; display:table-cell; vertical-align:middle; padding-left:40px; height:300px; max-height:300px;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-sidemodule-textright {padding-left:0px; padding-right: 40px;}
+    .aplus-v2 .aplus-standard .apm-sidemodule-textleft {position:relative; display:table-cell; vertical-align:middle; height:300px; max-height:300px;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-sidemodule-textleft {padding-left:0px;}
+    .aplus-v2 .aplus-standard .apm-sidemodule-imageleft {position:relative; float:left; display:block;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-sidemodule-imageleft {float:right;}
+    .aplus-v2 .aplus-standard .apm-sidemodule-imageright {position:relative; float:right; display:block;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-sidemodule-imageright {float:left;}
+    /* A+ Template - Module 4 Specific CSS */
+    .aplus-v2 .aplus-standard.aplus-module.module-4 th {padding: 0px; padding-right:30px; width:220px;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard.aplus-module.module-4 th {padding-left: 30px; padding-right: 0px;}
+    .aplus-v2 .aplus-standard.aplus-module.module-4 th:last-of-type {padding-right:0px;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard.aplus-module.module-4 th:last-of-type {padding-left: 0px}
+    /* A+ Template - Module 5 Specific CSS */
+    .aplus-v2 .aplus-standard .apm-tablemodule {text-align:left; margin:0 auto; width:970px; display:table;}
+    .aplus-v2 .aplus-standard table.apm-tablemodule-table {border-bottom:1px solid #dddddd; width: 970px; left:4%;table-layout: fixed}
+    .aplus-v2 .aplus-standard th.apm-tablemodule-keyhead {border-top:1px solid #dddddd; padding:8px 14px 6px !important; background-color:#f7f7f7; font-weight:normal; color:#626262; float:none !important; margin-right:0; text-align:center; width:106px;}
+    .aplus-v2 .aplus-standard tr.apm-tablemodule-keyvalue td {padding-top:8px !important; padding-left:14px; padding-bottom:8px; border-top:1px solid #dddddd; border-bottom:1px solid #dddddd; text-align:center;width:inherit!important}
+    .aplus-v2 .aplus-standard .apm-tablemodule-valuecell.selected {background-color:#fff5ec;}
+    .aplus-v2 .aplus-standard .apm-tablemodule-valuecell span {word-wrap:break-word;}
+    .aplus-v2 .aplus-standard .apm-tablemodule-keyhead {border-right:1px solid #dddddd;}
+    .aplus-v2 .aplus-standard .apm-tablemodule-blankkeyhead {border:0 !important; width:18%;}
+    .aplus-v2 .aplus-standard .apm-tablemodule-image {background-color:#FFFFFF; padding:0 !important; text-align:center; overflow:hidden; vertical-align:bottom;}
+    .aplus-v2 .aplus-standard .apm-tablemodule-imagerows &gt; td &gt; img {max-width:none !important;}
+    .aplus-v2 .aplus-standard table.apm-tablemodule-table {margin-bottom: 6px!important;}
+    .aplus-v2 .aplus-standard table.apm-tablemodule-table th {padding-bottom:8px; text-align:center;}
+    .aplus-v2 .aplus-standard .apm-checked {text-align:center;}
+    /* A+ Template - Module 6 Specific CSS */
+    .aplus-v2 .aplus-standard .apm-hovermodule {text-align:left; margin:0 auto; width:970px; padding: 0; background-color:#ffffff; position:relative;}
+    .aplus-v2 .aplus-standard .apm-hovermodule {text-align:inherit;}
+    .aplus-v2 .aplus-standard .apm-hovermodule-slides {background-color:#ffffff; width:970px; height:300px;}
+    .aplus-v2 .aplus-standard .apm-hovermodule-slides-inner {margin-left:345px; position:absolute; z-index:25;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-hovermodule-slides-inner {margin-left:0px; margin-right:345px;}
+    .aplus-v2 .aplus-standard .apm-hovermodule-slidecontrol {padding-top: 14px;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-hovermodule-slidecontrol {left: 0px; right:345px;}
+    .aplus-v2 .aplus-standard .apm-hovermodule-smallimage {vertical-align:top; display: inline-block; width:80px; cursor:pointer; margin-right:35px; padding:0;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-hovermodule-smallimage {margin-right:0px; margin-left:35px;}
+    .aplus-v2 .aplus-standard .apm-hovermodule-smallimage-bg {background-color:#ffffff; width:80px; height:80px;}
+    .aplus-v2 .aplus-standard .apm-hovermodule-smallimage-last {margin-right:0 !important;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-hovermodule-smallimage-last {margin-left:0 !important;}
+    .aplus-v2 .aplus-standard .apm-hovermodule-smallimage a {text-transform:uppercase; font-size:11px; font-weight:bold;}
+    .aplus-v2 .aplus-standard .apm-hovermodule-smallimage a:hover {text-decoration:none; color:#333333 !important;}
+    .aplus-v2 .aplus-standard .apm-hovermodule-smallimage img {border:1px solid #888888;}
+    .aplus-v2 .aplus-standard .apm-hovermodule-opacitymodon:hover {opacity:1 !important; filter:alpha(opacity=100) !important;}
+    .aplus-v2 .aplus-standard .apm-hovermodule-opacitymodon img {opacity:0.3; filter:alpha(opacity=30);}
+    .aplus-v2 .aplus-standard .apm-hovermodule-image {position:absolute; left:0; z-index: 1;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-hovermodule-image {right:0;}
+    /* A+ Template - Module 9 Specific CSS */
+    .aplus-v2 .aplus-standard.aplus-module.module-9 th.apm-center {padding: 0 35px 0 0; width:300px;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard.aplus-module.module-9 th.apm-center {padding: 0 0 0 35px; width:300px;}
+    .aplus-v2 .aplus-standard.aplus-module.module-9 th.apm-center:last-of-type {padding:0px;}
+    /*A+ Template - Module 11/12 Specific CSS */
+    .aplus-v2 .aplus-standard .apm-heromodule-textright {align-self:center; right:50px; margin-left:auto; padding:15px; filter: progid:DXImageTransform.Microsoft.gradient(startColorstr=#BBBBBB,endColorstr=#FFFFFF); background-color: rgb(0,0,0); background-color:rgba(0,0,0,0.7);color:white; width:250px;}
+    html[dir='rtl'] .aplus-v2 .aplus-standard .apm-heromodule-textright {left: 50px; right:auto; margin-left:0; margin-right:auto;}
+    .aplus-v2 .aplus-standard .apm-heromodule-textright h3,
+    .aplus-v2 .aplus-standard .apm-heromodule-textright ul,
+    .aplus-v2 .aplus-standard .apm-heromodule-textright ol,
+    .aplus-v2 .aplus-standard .apm-heromodule-textright ul .a-list-item,
+    .aplus-v2 .aplus-standard .apm-heromodule-textright ol .a-list-item {color:white}
+    .aplus-v2 .aplus-standard.module-12 .textright {align-self:center; right:50px; margin-left:auto; padding:15px; color:black; width:250px; filter: progid:DXImageTransform.Microsoft.gradient(startColorstr=#BBBBBB,endColorstr=#FFFFFF); background-color: rgb(255,255,255); background-color:rgba(255,255,255,0.7);}
+    html[dir='rtl'] .aplus-v2 .aplus-standard.module-12 .textright {left: 50px; right:auto; margin-left:0; margin-right:auto;}
+    .aplus-v2 .aplus-standard.module-12 .apm-hero-image,.aplus-v2 .aplus-standard.module-11 .apm-hero-image{float:none}
+    .aplus-v2 .aplus-standard.module-12 .apm-hero-image img,.aplus-v2 .aplus-standard.module-11 .apm-hero-image img{position:absolute}
+    .aplus-v2 .aplus-standard.module-12 .apm-hero-text,.aplus-v2 .aplus-standard.module-11 .apm-hero-text{position:relative}
+    .aplus-v2 .aplus-standard.module-11 .aplus-module-content,.aplus-v2 .aplus-standard.module-12 .aplus-module-content{min-height:300px; display: flex}
+    /* module 13 text */
+    .aplus-v2 .aplus-standard .aplus-module-13 {
+        padding: 40px 0;
+        max-width: 979px;
+    }
+   .aplus-v2 .aplus-standard .aplus-module-13 .aplus-13-heading-text {
+        padding-bottom: 10px;
+    }
+    .aplus-v2 .aplus-standard .aplus-module-13 p {
+        text-align: left;
+        padding-bottom: 10px;
+    }
+    .aplus-v2 .aplus-standard .aplus-module-13 p {
+        text-align: inherit;
+    }
+    @media (max-width: 800px) {
+        /* Main Media Queries */
+        .aplus-v2 .aplus-standard .acs-ux-wrapfix {width:100%;}
+        .aplus-v2 .aplus-standard .aplus-module-wrapper {width:100%;}
+        .aplus-v2 .aplus-standard .apm-leftimage {float:none;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .acs-ux-wrapfix {width:100%;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .aplus-module-wrapper {width:100%;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-leftimage {float:none;}
+        .aplus-v2 .aplus-standard .apm-centerthirdcol ul,
+        .aplus-v2 .aplus-standard .apm-centerthirdcol ol {margin-left: 14px;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-centerthirdcol ul,
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-centerthirdcol ol {margin-left: 0px; margin-right: 14px;}
+        /* Module1 Media Queries */
+        .aplus-v2 .aplus-standard .apm-lefttwothirdswrap {float:none; width:100%; margin:0;}
+        .aplus-v2 .aplus-standard .apm-leftimage p {display:none;}
+        .aplus-v2 .aplus-standard .apm-centerthirdcol {float:none; width:100%;}
+        .aplus-v2 .aplus-standard .apm-listbox {width:100%;}
+        .aplus-v2 .aplus-standard .apm-rightthirdcol {float:none; width:100%; border-left:none; padding:0; margin:0; margin-bottom:20px;}
+        .aplus-v2 .aplus-standard .apm-rightthirdcol-inner img {display:block; margin:auto;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-lefttwothirdswrap {float:none; width:100%; margin:0;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-leftimage p {display:none;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-centerthirdcol {float:none; width:100%;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-listbox {width:100%;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-rightthirdcol {float:none; width:100%; border-left:none; padding:0; margin:0; margin-bottom:20px;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-rightthirdcol-inner img {display:block; margin:auto;}
+        /* Module2/3 Media Queries */
+        .aplus-v2 .aplus-standard .apm-sidemodule {width:100%; height:auto;}
+        .aplus-v2 .aplus-standard .apm-sidemodule-imageleft {width:100%; position:relative; display:block; margin-bottom:15px;}
+        .aplus-v2 .aplus-standard .apm-sidemodule-imageleft img {display:block; margin:0 auto;}
+        .aplus-v2 .aplus-standard .apm-sidemodule-imageright {width:100%; position:relative; display:block; margin-bottom:15px;}
+        .aplus-v2 .aplus-standard .apm-sidemodule-imageright img {display:block; margin:0 auto;}
+        .aplus-v2 .aplus-standard .apm-sidemodule .a-spacing-medium {margin-bottom:30px !important;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-sidemodule {width:100%; height:auto;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-sidemodule-imageleft {width:100%; position:relative; display:block; margin-bottom:15px;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-sidemodule-imageleft img {display:block; margin:0 auto;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-sidemodule-imageright {width:100%; position:relative; display:block; margin-bottom:15px;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-sidemodule-imageright img {display:block; margin:0 auto;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-sidemodule .a-spacing-medium {margin-bottom:30px !important;}
+        /* Module4 Media Queries */
+        .aplus-v2 .aplus-standard .apm-fourthcol {margin:0; padding-bottom:23px; width:100%; float:none;}
+        .aplus-v2 .aplus-standard .apm-fourthcol .apm-fourthcol-image {height:inherit;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-fourthcol {margin:0; padding-bottom:23px; width:100%; float:none;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-fourthcol .apm-fourthcol-image {height:inherit;}
+        /* Module5 Media Queries */
+        .aplus-v2 .aplus-standard table.apm-tablemodule-table {width:100%;}
+        .aplus-v2 .aplus-standard .apm-tablemodule-valuecell {width:auto;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard table.apm-tablemodule-table {width:100%;}
+        html[dir='rtl'] .aplus-v2 .aplus-standard .apm-tablemodule-valuecell {width:auto;}
+    }
+    /* aui hack */
+    .aplus-v2 .aplus-standard * {-moz-box-sizing: border-box;-webkit-box-sizing: border-box;box-sizing: border-box;}
+    .aplus-v2 .aplus-standard .a-box mp-centerthirdcol-listboxer {-webkit-border-radius: 4px;-moz-border-radius: 4px;border-radius: 4px;position: relative;padding: 14px 18px;}
+    .aplus-v2 .aplus-standard .a-box {display: block;-webkit-border-radius: 4px;-moz-border-radius: 4px;border-radius: 4px;border: 1px #ddd solid;background-color: white;}
+    .aplus-v2 .aplus-standard .a-color-alternate-background {background-color: #f3f3f3!important;}
+    .aplus-v2 .aplus-standard .a-section {margin-bottom: 12px;}
+    .aplus-v2 .aplus-standard .a-size-base {font-size: 13px!important;line-height: 19px!important;}
+    .aplus-v2 .aplus-standard .a-spacing-base, .aplus-v2 .aplus-standard .a-ws .a-ws-spacing-base {margin-bottom: 14px!important;}
+    .aplus-v2 .aplus-standard .a-spacing-large, .aplus-v2 .aplus-standard .a-ws .a-ws-spacing-large {margin-bottom: 22px!important;}
+    .aplus-v2 .aplus-standard .a-spacing-mini, .aplus-v2 .aplus-standard .a-ws .a-ws-spacing-mini {margin-bottom: 6px!important;}
+    .aplus-v2 .aplus-standard .a-spacing-small, .aplus-v2 .aplus-standard .a-ws .a-ws-spacing-small {margin-bottom: 10px!important;}
+    .aplus-v2 .aplus-standard a, .aplus-v2 .aplus-standard a:visited, .aplus-v2 .aplus-standard a:active, .aplus-v2 .aplus-standard a:link {text-decoration: none;}
+    .aplus-v2 .aplus-standard a:hover {text-decoration: underline;cursor: pointer;}
+    .aplus-v2 .aplus-standard h1, .aplus-v2 .aplus-standard h2, .aplus-v2 .aplus-standard h3, .aplus-v2 .aplus-standard h4 {font-family: Arial,sans-serif;text-rendering: optimizeLegibility;padding-bottom: 4px;}
+    .aplus-v2 .aplus-standard h1, .aplus-v2 .aplus-standard h2, .aplus-v2 .aplus-standard h3, .aplus-v2 .aplus-standard h4 {font-family: inherit;}
+    .aplus-v2 .aplus-standard h1, .aplus-v2 .aplus-standard h2, .aplus-v2 .aplus-standard h3, .aplus-v2 .aplus-standard h4, .aplus-v2 .aplus-standard h5, .aplus-v2 .aplus-standard h6 {padding: 0;margin: 0;}
+    .aplus-v2 .aplus-standard h3{font-weight: bold;font-size: 17px;line-height: 1.255;}
+    .aplus-v2 .aplus-standard h4 {font-weight: normal;font-size: 17px;line-height: 1.255;}
+    .aplus-v2 .aplus-standard h5 {font-weight: bold;font-size: 13px;line-height: 19px;}
+    .aplus-v2 .aplus-standard img {vertical-align: top;max-width: 100%;}
+    .aplus-v2 .aplus-standard p {padding: 0;margin: 0 0 14px 0;}
+    .aplus-v2 .aplus-standard ul li {list-style: disc;}
+    .aplus-v2 .aplus-standard ul {margin: 0 0 18px 18px;}
+    .aplus-v2 .aplus-standard ul, .aplus-v2 .aplus-standard ol {padding: 0;}
+    .aplus-v2 .aplus-standard ul:last-child, .aplus-v2 .aplus-standard ol:last-child {margin-bottom: 0!important;}
+    .aplus-v2 .aplus-standard .read-more-arrow-placeholder {text-align: right; cursor: pointer; display:none;}
+&lt;/style&gt;
+                               &lt;script&gt;
+    if(P) {
+        P.when("a-expander").execute(function (expander) {
+            expander.initializeExpanders();
+        });
+    }
+&lt;/script&gt;
+         &lt;div class="celwidget aplus-module launchpad-company-logo aplus-standard" cel_widget_id="aplus-launchpad-company-logo" data-csa-c-id="zdjrc2-j8l2ja-nygons-w80w8j"&gt;
+                            &lt;div class="a-section a-text-center launchpad-module launchpad-module-company-logo"&gt;                               &lt;img alt="o2cool " src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media/vc/ae630a65-81b0-4455-b54f-36fedfbd919c.__CR0,41,2023,607_PT0_SX600_V1___.jpg"&gt;&lt;noscript&gt;&lt;img alt="o2cool " src="https://m.media-amazon.com/images/S/aplus-media/vc/ae630a65-81b0-4455-b54f-36fedfbd919c.__CR0,41,2023,607_PT0_SX600_V1___.jpg"/&gt;&lt;/noscript&gt;   &lt;/div&gt;      &lt;/div&gt;
+                 &lt;div class="celwidget aplus-module 3p-module-b aplus-standard" cel_widget_id="aplus-3p-module-b" data-csa-c-id="7qn6oe-benpu5-x2okfn-4st126"&gt;
+                            &lt;div class="aplus-module-wrapper aplus-3p-fixed-width"&gt;
+                                                                    &lt;img alt="1" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-spacing-base a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media/vc/ef9ef45c-136c-4e8a-b8e5-3dcccd03eba4.__CR0,0,970,600_PT0_SX970_V1___.jpeg"&gt;&lt;noscript&gt;&lt;img alt="1" src="https://m.media-amazon.com/images/S/aplus-media/vc/ef9ef45c-136c-4e8a-b8e5-3dcccd03eba4.__CR0,0,970,600_PT0_SX970_V1___.jpeg"/&gt;&lt;/noscript&gt;                                                                    &lt;/div&gt;
+      &lt;/div&gt;
+                 &lt;div class="celwidget aplus-module module-12 aplus-standard" cel_widget_id="aplus-module-12" data-csa-c-id="1czpq-89qj1k-neaz6d-ev6tbt"&gt;
+                      &lt;div data-a-expander-name="aplus-module-expander" data-a-expander-collapsed-height="360" class="a-expander-collapsed-height a-row a-expander-container a-expander-partial-collapse-container" style="max-height:360px"&gt; &lt;div aria-expanded="false" class="a-expander-content a-expander-partial-collapse-content"&gt;      &lt;div class="aplus-module-wrapper apm-spacing apm-floatnone apm-fixed-width"&gt;
+    &lt;div class="apm-sidemodule aplus-module-content"&gt;
+        &lt;div class="apm-hero-image"&gt;
+                                          &lt;img alt="2" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media/vc/cf6ff7bf-ea1d-468d-b024-58f49c7a9cd9.__CR0,0,970,300_PT0_SX970_V1___.jpeg"&gt;&lt;noscript&gt;&lt;img alt="2" src="https://m.media-amazon.com/images/S/aplus-media/vc/cf6ff7bf-ea1d-468d-b024-58f49c7a9cd9.__CR0,0,970,300_PT0_SX970_V1___.jpeg"/&gt;&lt;/noscript&gt;   &lt;/div&gt;
+         &lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="clear:both"&gt;&lt;/div&gt;
+   &lt;/div&gt; &lt;div class="a-expander-header a-expander-partial-collapse-header a-text-bold a-text-caps a-text-right" style="opacity: 0; display: none;"&gt;&lt;div class="a-expander-content-fade"&gt;&lt;/div&gt;&lt;a href="javascript:void(0)" data-csa-c-func-deps="aui-da-a-expander-toggle" data-csa-c-type="widget" data-csa-interaction-events="click" aria-expanded="false" role="button" data-action="a-expander-toggle" class="a-declarative" data-a-expander-toggle="{&amp;quot;allowLinkDefault&amp;quot;:true, &amp;quot;expand_prompt&amp;quot;:&amp;quot;Read more&amp;quot;, &amp;quot;collapse_prompt&amp;quot;:&amp;quot;Read less&amp;quot;}" data-csa-c-id="a4vbwy-ypvb43-v7ix7x-gr4s4i"&gt;&lt;i class="a-icon a-icon-extender-expand"&gt;&lt;/i&gt;&lt;span class="a-expander-prompt"&gt;Read more&lt;/span&gt;&lt;/a&gt;&lt;/div&gt; &lt;/div&gt;     &lt;/div&gt;
+                 &lt;div class="celwidget aplus-module 3p-module-b aplus-standard" cel_widget_id="aplus-3p-module-b" data-csa-c-id="ve055v-nzrep1-w18gnr-sljq85"&gt;
+                            &lt;div class="aplus-module-wrapper aplus-3p-fixed-width"&gt;
+                                                                    &lt;img alt="4" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-spacing-base a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media/vc/3f49eedc-bdbf-4cdb-b1df-2aaa64a10141.__CR0,0,970,600_PT0_SX970_V1___.jpeg"&gt;&lt;noscript&gt;&lt;img alt="4" src="https://m.media-amazon.com/images/S/aplus-media/vc/3f49eedc-bdbf-4cdb-b1df-2aaa64a10141.__CR0,0,970,600_PT0_SX970_V1___.jpeg"/&gt;&lt;/noscript&gt;                                                                    &lt;/div&gt;
+      &lt;/div&gt;
+                 &lt;div class="celwidget aplus-module 3p-module-b aplus-standard" cel_widget_id="aplus-3p-module-b" data-csa-c-id="4zoaus-pof8oa-ffvncn-n4r1qm"&gt;
+                            &lt;div class="aplus-module-wrapper aplus-3p-fixed-width"&gt;
+                                                                    &lt;img alt="3" src="https://images-na.ssl-images-amazon.com/images/G/01/x-locale/common/grey-pixel.gif" class="a-spacing-base a-lazy-loaded" data-src="https://m.media-amazon.com/images/S/aplus-media/vc/bb330987-98fc-4247-a95c-c91ec27f66ce.__CR0,0,970,600_PT0_SX970_V1___.jpeg"&gt;&lt;noscript&gt;&lt;img alt="3" src="https://m.media-amazon.com/images/S/aplus-media/vc/bb330987-98fc-4247-a95c-c91ec27f66ce.__CR0,0,970,600_PT0_SX970_V1___.jpeg"/&gt;&lt;/noscript&gt;                                                                    &lt;/div&gt;
+      &lt;/div&gt;
+                    &lt;/div&gt; </t>
+  </si>
+  <si>
+    <t>O2COOL-Classic-Insulated-Elite-Bottle</t>
+  </si>
+  <si>
+    <t>B07SMBRR27</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/710LtVAP-7L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71DGka8alcL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Contigo Ashland Chill 2.0 Water Bottle with AUTOSPOUT Lid | Stainless Steel Water Bottle, 24 oz., 2-Pack, Blue Corn and Stainless Steel with Licorice Lid</t>
+  </si>
+  <si>
+    <t>About this item
+NO LEAKS WITH AUTOSPOUT TECHNOLOGY: Spout pops up for easy drinking from the straw; seals with straw down for no spills
+VACUUM-INSULATED: Double-wall vacuum-insulated stainless steel keeps drinks cold for 24 hours and hot for 6 hours
+LOCK IT IN: Button lock ensures the spout doesn’t open accidentally
+CARRY ON: Integrated handle makes it easier and more comfortable to pick up and go
+EVERY LAST DROP: Angled straw fits securely into the lid so you can sip every last drop
+SIP CLEANER: Spout cover helps to protect the spout from dirt and grime
+EASY TO CLEAN: Lid is top-rack dishwasher-safe; hand-wash body for best results
+Show more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Contigo &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Stainless Steel &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Blue and Silver &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎24 Fluid Ounces &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Adult &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Hand Wash Only &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Ashland Chill 2.0 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎7.09"W x 13.19"H &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Reusable &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Style &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Ashland Chill 2.0 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎48.0 Fl Oz &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; 	Manufacturer	 &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Contigo &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Part Number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2164496 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2.18 pounds &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎7.09 x 3.74 x 13.19 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎China &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2164496 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎24 Ounce &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Pattern &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Water Bottle &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Package Quantity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Included Components &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Bottle, Lid &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Required? &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Warranty Description &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Limited Lifetime Warranty &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B09N7XNQVS &lt;/td&gt;    &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B09N7XNQVS" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="1pncm9-k1428q-iemdif-gs95kd"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.5 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B09N7XNQVS&amp;quot;}" data-csa-c-id="jyu5jf-3luw44-rla2em-yrsvmt"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.5 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="5fwoo4-8s46oy-8z9yze-3wry58"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;154 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.5 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#5,928 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#361 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;                           &lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; December 8, 2021 &lt;/td&gt;    &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;     &lt;div class="a-section"&gt;  &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Warranty &amp;amp; Support &lt;/h1&gt;     &lt;div class="a-section table-padding"&gt;    If you'd like a copy of the manufacturer's warranty for a product found on Amazon.com, you can contact the manufacturer directly or visit their website for more information. Manufacturer's warranties may not apply in all cases, depending on factors like the use of the product, where the product was purchased, or who you purchased the product from. Please review the warranty carefully, and contact the manufacturer if you have any questions. &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_BZ3F1TM8HTW02XAY9SHE_&amp;amp;ASIN=B09N7XNQVS&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="btks1k-flg0xy-r2w26x-hwfnec"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
+  </si>
+  <si>
+    <t>Contigo-Ashland-AUTOSPOUT-Stainless-Licorice</t>
+  </si>
+  <si>
+    <t>B09N7XNQVS</t>
+  </si>
+  <si>
+    <t>42.99</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61wPcNkvmKL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61ZdvbjmNzL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Contigo Cortland Chill 2.0 Water Bottle with AUTOSEAL Lid | Stainless Steel Water Bottle, 24 oz., 2-Pack, Juniper &amp; Dragon Fruit</t>
+  </si>
+  <si>
+    <t>100% SPILL-PROOF WITH AUTOSEAL TECHNOLOGY: Push the button for easy sipping; release for an instant seal and no-spill experience
+VACUUM-INSULATED: Double-wall vacuum-insulated stainless steel keeps drinks cold for 24 hours and hot for 6 hours
+SIP CLEANER: Spout cover helps to protect against dirt and grime
+LOCK IT IN: Button lock ensures the cover doesn’t pop up accidentally
+CARRY ON: Integrated handle makes it easier and more comfortable to pick up and go
+EASY TO CLEAN: Lid is top-rack dishwasher-safe; underside of lid opens up for easy cleaning
+PERFECT FIT: Fits most cup holders
+MIX AND MATCH: Lids are interchangeable with other Contigo water bottles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Contigo &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Stainless Steel &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Pink and Black &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎24 Fluid Ounces &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Adult &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Cortland Chill &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎7.09"W x 12.21"H &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Reusable &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Style &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Cortland Chill &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎48.0 Fl Oz &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; 	Manufacturer	 &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Contigo &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Part Number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2164497 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1.96 pounds &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎7.09 x 3.74 x 12.21 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎China &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2164497 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎24 Ounce &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Pattern &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Water Bottle &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Package Quantity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Included Components &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Bottle, Lid &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Required? &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Warranty Description &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Limited Lifetime Warranty &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B09N7Z26F5 &lt;/td&gt;    &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B09N7Z26F5" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="vh0ie1-vb0w78-ywpyiw-m2lqik"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.8 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B09N7Z26F5&amp;quot;}" data-csa-c-id="e5j1mq-xdij1z-pp9byn-4a23s8"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-5"&gt;&lt;span class="a-icon-alt"&gt;4.8 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="ut2irf-uhx97q-eh23cd-m1uitu"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;231 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.8 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#4,816 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#317 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;                           &lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; December 8, 2021 &lt;/td&gt;    &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;     &lt;div class="a-section"&gt;  &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Warranty &amp;amp; Support &lt;/h1&gt;     &lt;div class="a-section table-padding"&gt;    If you'd like a copy of the manufacturer's warranty for a product found on Amazon.com, you can contact the manufacturer directly or visit their website for more information. Manufacturer's warranties may not apply in all cases, depending on factors like the use of the product, where the product was purchased, or who you purchased the product from. Please review the warranty carefully, and contact the manufacturer if you have any questions. &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_T2CNKDZQ9SZC0BZRKY4F_&amp;amp;ASIN=B09N7Z26F5&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="7sppsg-7y3asg-f86dud-u8e92q"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
+  </si>
+  <si>
+    <t>Contigo-Cortland-AUTOSEAL-Stainless-Juniper</t>
+  </si>
+  <si>
+    <t>B09N7Z26F5</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61FrZSBHwNL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71dSgWuHYRL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>THERMOS FUNTAINER 12 Ounce Stainless Steel Vacuum Insulated Kids Straw Bottle, Rose Gold Glitter</t>
+  </si>
+  <si>
+    <t>· STAYS COLD: THERMOS vacuum insulation technology keeps drinks cold for up to 12 hours. Our kids water bottles are built so their drinks are as cool on the inside as they look on the outside. Not for hot liquids
+· DURABLE FOR DAILY USE: High quality 18/8 stainless steel construction is built to handle drops, dings and assorted roughhousing. You can pop your FUNTAINER water bottle in the dishwasher, though washing by hand is recommended
+· KID-FRIENDLY DESIGN: Choose from a variety of fun colors or patterns! This water bottle is lightweight and compact with a push button lid so it’s easy to carry and open. The integrated carry handle features a soft touch grip
+· HYGIENIC COVERED STRAW: Help keep germs away with a hygienically covered pop-up straw that’s also removable for easy cleaning
+· PROTECT WHAT YOU LOVE: This THERMOS KIDS gear is made with durable, dishwasher safe materials meant to keep lunch and drinks how they like them. The lunchtime puzzle is officially solved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                       &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;   &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;          &lt;tbody&gt;&lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; THERMOS &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 12 Ounces &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Rose Gold Glitter &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 3.1"W x 6.9"H &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; FUNTAINER 12 Ounce Bottle &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 0.25 Pounds &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Stainless Steel &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1 &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Included Components &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Kids water bottle &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Machine Wash &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 3.1 x 2.7 x 6.9 inches &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 4 ounces &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; THERMOS &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; B09WG6217Y &lt;/td&gt; &lt;/tr&gt;                          &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; China &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; F4101RG6 &lt;/td&gt; &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B09WG6217Y" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="oao5uz-uqmhw2-20bhxh-5xe58m"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.8 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B09WG6217Y&amp;quot;}" data-csa-c-id="eb2b3x-uprcz4-iiz73f-uuwj4c"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-5"&gt;&lt;span class="a-icon-alt"&gt;4.8 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="uikccf-9vh64k-l1lgxg-o5vjwi"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;41,975 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.8 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#4 in Kitchen &amp;amp; Dining (&lt;a href="/gp/bestsellers/kitchen/ref=pd_zg_ts_kitchen"&gt;See Top 100 in Kitchen &amp;amp; Dining&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#2 in &lt;a href="/gp/bestsellers/kitchen/13880501/ref=pd_zg_hrsr_kitchen"&gt;Insulated Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;               &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; March 24, 2022 &lt;/td&gt; &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt;      &lt;div class="a-row a-spacing-base"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Warranty &amp;amp; Support &lt;/h1&gt;  &lt;div class="a-section table-padding"&gt;    If you'd like a copy of the manufacturer's warranty for a product found on Amazon.com, you can contact the manufacturer directly or visit their website for more information. Manufacturer's warranties may not apply in all cases, depending on factors like the use of the product, where the product was purchased, or who you purchased the product from. Please review the warranty carefully, and contact the manufacturer if you have any questions. &lt;/div&gt; &lt;/div&gt;  &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_RH7AZ05BWG06APYMQ7K5_&amp;amp;ASIN=B09WG6217Y&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="ym1ni8-9g4ykz-b91c7n-6wln3a"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;     </t>
+  </si>
+  <si>
+    <t>THERMOS-FUNTAINER-Stainless-Insulated-Glitter</t>
+  </si>
+  <si>
+    <t>B09WG6217Y</t>
+  </si>
+  <si>
+    <t>15.08</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/719fIUN9kmL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/718jeNHcMtL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61jnrzPItQL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Contigo Purity Glass Water Bottle, 20oz, Scuba</t>
+  </si>
+  <si>
+    <t>Peace of mind - made completely of glass, steel and food-grade silicone; no plastic parts
+Seal it in - leak-proof lid (when closed); big mouth - contoured wide mouth design that's perfect for chugging
+Carry on - attached lid keeps the purity by your side and creates a convenient carry loop for easy portability
+Clean up - top rack dishwasher safe lid and body; drink pure - purity is 100% BPA-free for a completely clean drinking experience
+Functional Fashion - expressive non-slip silicone sleeve protects the glass bottle while adding a unique touch to your streamlined glass bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                       &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;   &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;          &lt;tbody&gt;&lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Contigo &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Glass &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Scuba Petal &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1.3 Pounds &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Adult &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 74109 &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1 &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 2.76"W x 9.84"H &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Reusable &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Sport &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Yoga &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1.0 Count &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 2.76 x 2.76 x 9.84 inches &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 10.4 ounces &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Department &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Unisex-Adult &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Contigo &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; B01LVW0HZU &lt;/td&gt; &lt;/tr&gt;                          &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; China &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 74109 &lt;/td&gt; &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B01LVW0HZU" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="jtxwaz-fic30p-83hhb1-wvvx6g"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.7 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B01LVW0HZU&amp;quot;}" data-csa-c-id="4u1tsc-jx59dr-nchzi2-s92z1q"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.7 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="rvyfrq-ymogsc-86ho22-r707p4"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;951 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.7 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#32,932 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#1,093 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;               &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Is Discontinued By Manufacturer &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; No &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; September 8, 2016 &lt;/td&gt; &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt;      &lt;div class="a-row a-spacing-base"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Warranty &amp;amp; Support &lt;/h1&gt;  &lt;div class="a-section table-padding"&gt;    If you'd like a copy of the manufacturer's warranty for a product found on Amazon.com, you can contact the manufacturer directly or visit their website for more information. Manufacturer's warranties may not apply in all cases, depending on factors like the use of the product, where the product was purchased, or who you purchased the product from. Please review the warranty carefully, and contact the manufacturer if you have any questions. &lt;/div&gt; &lt;/div&gt;  &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_5Z1EGK3MQECF3JHFPYMK_&amp;amp;ASIN=B01LVW0HZU&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="askb03-qvw5fw-o2icmd-z3bey9"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;     </t>
+  </si>
+  <si>
+    <t>Contigo-Purity-Glass-Bottle-Sleeve</t>
+  </si>
+  <si>
+    <t>B01LVW0HZU</t>
+  </si>
+  <si>
+    <t>16.99</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/718rJAI9asL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Jrxdhor-L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Pearhead GRL Pwr Water Bottle, Kids Water Bottle, Travel and Sports Water Bottle, BPA Free and Dishwasher Safe, Flip Straw 16oz Bottle, Back to School Gift</t>
+  </si>
+  <si>
+    <t>You go girl! Whether your little one is heading off to school, eating lunch, playing their favorite sport or spending time with friends and family, this girl power water bottle by Pearhead is the perfect water bottle to bring along
+Includes one kids tritan pink water bottle with flip straw and adorable graphics like “grl pwr,” “yes you can” and “you go girl” – children’s water bottle holds 16 fluid ounces, phthalate free, BPA free, dishwasher safe, for ages 3y+
+This travel water bottle is reusable, durable, small and easy for your little ones to carry – the straw makes this on-the-go water bottle easy to drink from with no-tilt sipping, making it perfect for your preschooler or grade schooler to stay hydrated
+This pink water bottle is a back to school essential and the perfect parent gift, children’s gift, girls gift, best friend gift, holiday gift, birthday gift, student gift, or gift for any other occasion!
+Dimensions: 3”W x 7”H x 3”D; holds 16 ounces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Pearhead &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Plastic &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Bottle Type &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Flip Straw &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Pink &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎16 Ounces &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Feature &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Dishwasher Safe, Carrying Loop, Straw &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Ages 3+ &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Grl Pwr Water Bottle &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎3"W x 7"H &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Theme &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Quote &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Reusable &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material free &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎BPA Free &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Style &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Girl Power Water Bottle &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1.0 Count &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎3 x 3 x 7 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎60129 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material Type &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Plastic &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; material_composition &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Plastic &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Additional product features &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Dishwasher Safe, Carrying Loop, Straw &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries required &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎3.84 ounces &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country/Region of origin &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎China &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B0B5YKR14K &lt;/td&gt;    &lt;/tr&gt;                            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#41,655 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#1,250 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;                       &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_GK0Q1B3J3SYNMAE2S12M_&amp;amp;ASIN=B0B5YKR14K&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="yrgn76-yrybid-lhg6n0-kd4hla"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
+  </si>
+  <si>
+    <t>Pearhead-Bottle-Travel-Sports-Dishwasher</t>
+  </si>
+  <si>
+    <t>B0B5YKR14K</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Ux0pVS49L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71qSpI9S05L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Joseph Joseph Dot Hydration-Tracking Water Bottle Counts Water Intake Tracks Consumption On Lid Twist Top, 20-ounce, Green</t>
+  </si>
+  <si>
+    <t>About this item
+Reach your daily hydration goals by tracking how much you drink
+Innovative tracking lid records number of bottles drunk. New dot appears every time bottle is refilled and lid is closed (1 dot = 1 bottle)
+Leak-proof lid
+Made from impact-resistant Triton, BPA Free
+Bottle - dishwasher safe. Lid - hand wash only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                       &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;   &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;          &lt;tbody&gt;&lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Joseph Joseph &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Plastic &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Green &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1.3 Pounds &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Adult &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Hand Wash Only &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1 &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 2.76"W x 9.26"H &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; Reusable &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Style &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 20-oz, regular &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 1.0 Count &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 2.76 x 2.76 x 9.26 inches &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 3.2 ounces &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; JOSEPH JOSEPH &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; B01I6UGR6Q &lt;/td&gt; &lt;/tr&gt;                          &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; 81049 &lt;/td&gt; &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B01I6UGR6Q" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="cdm3kk-m6vybv-sl07pm-qzalpo"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.4 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B01I6UGR6Q&amp;quot;}" data-csa-c-id="lr2u0e-wlc439-ondwze-6w27hm"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.4 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="giqyh6-q0ojk4-ijinuw-9hcc7w"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;4,404 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.4 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#219,444 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#3,821 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;               &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Is Discontinued By Manufacturer &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; No &lt;/td&gt; &lt;/tr&gt;            &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;  &lt;td class="a-size-base prodDetAttrValue"&gt; September 12, 2016 &lt;/td&gt; &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt;      &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_RVYHWV9DC4YP2GQ8S2PX_&amp;amp;ASIN=B01I6UGR6Q&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="hk6qwi-upt6g9-e7vlfe-g7vwhd"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;     </t>
+  </si>
+  <si>
+    <t>Joseph-81049-Hydration-Tracking-Consumption-20-ounce</t>
+  </si>
+  <si>
+    <t>B01I6UGR6Q</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61iGqNfz-uL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61fo-E1kdgL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Sigg - Kids Water Bottle</t>
+  </si>
+  <si>
+    <t>ONE-HAND OPERATION: Drinking water made easy at the simple push of a button: the ONE cap Carry, open, drink, close and repeat Viva ONEs are innovative and colorful clear plastic water bottles to take to school or the field
+100% LEAKPROOF: Though this is a spill proof water bottle for kids that even resists carbonated drinks, it makes the ideal sports water bottle for experts of all sizes Keep water in check with this ONE see through water bottle of a kind
+HIGH QUALITY &amp; DISHWASHER SAFE: Unicorn water bottle for kids made of high-grade transparent polypropylene Specially designed - to be easy to clean - dishwasher safe water bottles that last decades and more
+SAFE DRINKING: Each SIGG kids water bottle is free of harmful chemicals, such as oestrogenic substances and phthalates Your child can safely enjoy every sip out of this BPA free water bottle for kids Neutral smell and taste
+WIDE RANGE OF FUN: Cool water bottles designed and engineered in Switzerland to deliver the best drinking experience Comes in all colors and designs for each kid to find their groove and parents to match along
+Care instructions: machine wash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎SIGG &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Polypropylene &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Girls Way &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1.1 Pounds &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Feature &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Air Tight &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Unisex &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Machine Wash &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎VIVA ONE Girls Way &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Recommended Uses For Product &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Water &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Cartoon Character &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎VIVA ONE Girls Way &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Theme &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Military&amp;nbsp; &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Reusable &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Shape &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Round &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material Type Free &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎BPA Free &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Style &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Girls Way &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Sport Type &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Climbing &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1.0 Count &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Package Dimensions L x W x H &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎8.27 x 2.83 x 2.76 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Package Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎0.12 Kilograms &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Dimensions  LxWxH &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2.9 x 2.9 x 8.3 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎SIGG &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Suggested Users &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Unisex-Youth &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎SIGG Switzerland Bottles AG &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Part Number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎9001.4 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Included Components &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Bottle, Lid &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎17 oz &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B08MKL5LTW &lt;/td&gt;    &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B08MKL5LTW" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="ja3puf-7r0xqp-htppdu-r2oscr"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.6 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B08MKL5LTW&amp;quot;}" data-csa-c-id="y7gkvr-2jitp4-uqlwhy-l6hil5"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.6 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="wbhk2v-zbe7jt-5cwcxn-jw1tnb"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;11,871 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.6 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#24,284 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#890 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;             &lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; November 20, 2020 &lt;/td&gt;    &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_W3200EQ1RQWF47YD2HR1_&amp;amp;ASIN=B08MKL5LTW&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="o627t5-ek76ba-7p9uds-42560v"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
+  </si>
+  <si>
+    <t>SIGG-Bottle-Leak-Proof-Dishwasher-Childrens</t>
+  </si>
+  <si>
+    <t>B08MKL5LTW</t>
+  </si>
+  <si>
+    <t>18.26</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71KwgW-T4HL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71KAd3AnYgL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>CamelBak eddy Kids BPA Free Water Bottle</t>
+  </si>
+  <si>
+    <t>Kids' Spill Proof Water Bottle: The Camelbak Eddy 0.4 Liter Kid's Water Bottle is specifically designed for smaller hands to use; It features easy to use parts and is made from high quality, safe, and easy to clean materials
+Just the right bite: this water bottle for kids combines the patented camelbak big bite valve with a stem tube and shut off valve; this detachable 1 piece component is simple for kids to use and simple for parents to clean
+Bpa free materials: the eddy 12 ounce kids’ water bottle is made from tritan plastic that is 100 percent free of bpa, bps, and BPF; it’s dishwasher safe, and all parts are easy to remove for simple clean up
+Colorful &amp; practical : camelbak has developed this eddy kids’ water bottle with a spill resistant design and fun graphics to keep you and your kids happy and hydrated; the simplified stem and straw are child safe yet easy to remove for cleaning
+If we build it we'll back it : our got your back lifetime guarantee covers all reservoirs, backpacks, bottles, and accessories from manufacturing defects in materials and workmanship for the lifetime of the product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;
+                          Product information &lt;/h2&gt;
+                      &lt;div class="a-row a-spacing-top-base"&gt; &lt;div class="a-column a-span6"&gt; &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎CamelBak &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Plastic &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Color &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Unicorns &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Capacity &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎400 Milliliters &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Feature &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Carrying Loop, Straw &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Age Range (Description) &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎3 Years &amp;amp; Up &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Care Instructions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Dishwasher &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Recommended Uses For Product &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Travel, School &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Number of Items &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎7.5"W x 2.88"H &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Theme &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Unicorn&amp;nbsp; &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Reusability &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Reusable &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Style &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Bottle Only &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Sport Type &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Basketball &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Unit Count &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎1.0 Count &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Package Dimensions L x W x H &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎4.65 x 3.9 x 0.43 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Package Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎0.14 Kilograms &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Dimensions  LxWxH &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎7.5 x 4 x 2.88 inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎4.97 Ounces &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand Name &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎CamelBak &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎CamelBak Products LLC &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Part Number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎53861 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model Year &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎2016 &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎0.4L &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;          &lt;/div&gt; &lt;/div&gt; &lt;div class="a-column a-span6 a-span-last"&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;div id="productDetails_db_sections" class="a-section"&gt;    &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt;Additional Information&lt;/h1&gt;     &lt;div class="a-section table-padding"&gt; &lt;table id="productDetails_detailBullets_sections1" class="a-keyvalue prodDetTable" role="presentation"&gt;         &lt;tbody&gt;&lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; ASIN &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; B015DK94R6 &lt;/td&gt;    &lt;/tr&gt;              &lt;tr&gt;   &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;Customer Reviews&lt;/th&gt;  &lt;td class="a-size-base"&gt;   &lt;style type="text/css"&gt;
+    /* 
+    * Fix for UDP-1061. Average customer reviews has a small extra line on hover 
+    * https://omni-grok.amazon.com/xref/src/appgroup/websiteTemplates/retail/SoftlinesDetailPageAssets/udp-intl-lock/src/legacy.css?indexName=WebsiteTemplates#40
+    */
+    .noUnderline a:hover { 
+        text-decoration: none; 
+    }
+&lt;/style&gt;
+                   &lt;div id="averageCustomerReviews" data-asin="B015DK94R6" data-ref="dpx_acr_pop_"&gt;
+                          &lt;span class="a-declarative" data-action="acrStarsLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrStarsLink-click-metrics" data-acrstarslink-click-metrics="{}" data-csa-c-id="myraay-2tndnm-98dudo-682ljb"&gt;     &lt;span id="acrPopover" class="reviewCountTextLinkedHistogram noUnderline" title="4.6 out of 5 stars"&gt;
+        &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;max-width&amp;quot;:&amp;quot;700&amp;quot;,&amp;quot;closeButton&amp;quot;:&amp;quot;false&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerBottom&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/customer-reviews/widgets/average-customer-review/popover/ref=dpx_acr_pop_?contextId=dpx&amp;amp;asin=B015DK94R6&amp;quot;}" data-csa-c-id="v1hwst-6ox9oc-qn3dwx-8bzqr9"&gt; &lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;  &lt;i class="a-icon a-icon-star a-star-4-5"&gt;&lt;span class="a-icon-alt"&gt;4.6 out of 5 stars&lt;/span&gt;&lt;/i&gt;  &lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt; &lt;/span&gt;
+       &lt;/span&gt; &lt;span class="a-letter-space"&gt;&lt;/span&gt;             &lt;span class="a-declarative" data-action="acrLink-click-metrics" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-acrLink-click-metrics" data-acrlink-click-metrics="{}" data-csa-c-id="cpmnqh-v8v93v-j0ea3c-bseeo5"&gt; &lt;a id="acrCustomerReviewLink" class="a-link-normal" href="#customerReviews"&gt; &lt;span id="acrCustomerReviewText" class="a-size-base"&gt;46,203 ratings&lt;/span&gt; &lt;/a&gt; &lt;/span&gt; &lt;script type="text/javascript"&gt;
+                    P.when('A', 'ready').execute(function(A) {
+                        A.declarative('acrLink-click-metrics', 'click', { "allowLinkDefault" : true }, function(event){
+                            if(window.ue) {
+                                ue.count("acrLinkClickCount", (ue.count("acrLinkClickCount") || 0) + 1);
+                            }
+                        });
+                    });
+                &lt;/script&gt;
+                 &lt;script type="text/javascript"&gt;
+            P.when('A', 'cf').execute(function(A) {
+                A.declarative('acrStarsLink-click-metrics', 'click', { "allowLinkDefault" : true },  function(event){
+                    if(window.ue) {
+                        ue.count("acrStarsLinkWithPopoverClickCount", (ue.count("acrStarsLinkWithPopoverClickCount") || 0) + 1);
+                    }
+                });
+            });
+        &lt;/script&gt;
+           &lt;/div&gt;
+      &lt;br&gt; 4.6 out of 5 stars &lt;/td&gt; &lt;/tr&gt;                &lt;tr&gt; &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Best Sellers Rank &lt;/th&gt; &lt;td&gt; &lt;span&gt;  &lt;span&gt;#42 in Sports &amp;amp; Outdoors (&lt;a href="/gp/bestsellers/sporting-goods/ref=pd_zg_ts_sporting-goods"&gt;See Top 100 in Sports &amp;amp; Outdoors&lt;/a&gt;)&lt;/span&gt; &lt;br&gt;  &lt;span&gt;#8 in &lt;a href="/gp/bestsellers/sporting-goods/3395091/ref=pd_zg_hrsr_sporting-goods"&gt;Water Bottles&lt;/a&gt;&lt;/span&gt; &lt;br&gt;  &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt;             &lt;tr&gt;     &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Date First Available &lt;/th&gt;       &lt;td class="a-size-base prodDetAttrValue"&gt; October 12, 2015 &lt;/td&gt;    &lt;/tr&gt;      &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt;  &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; &lt;div class="a-row"&gt;       &lt;div class="a-section"&gt; &lt;h1 class="a-size-medium a-spacing-small secHeader"&gt; Feedback &lt;/h1&gt; &lt;div class="a-section table-padding"&gt; &lt;div class="a-row"&gt;       &lt;/div&gt;&lt;div class="a-row"&gt;                 &lt;div id="pricingFeedbackDiv"&gt;
+                &lt;span class="a-declarative" data-action="a-popover" data-csa-c-type="widget" data-csa-c-func-deps="aui-da-a-popover" data-a-popover="{&amp;quot;closeButton&amp;quot;:&amp;quot;true&amp;quot;,&amp;quot;closeButtonLabel&amp;quot;:&amp;quot;Dismiss&amp;quot;,&amp;quot;name&amp;quot;:&amp;quot;pricingFeedbackPopup&amp;quot;,&amp;quot;width&amp;quot;:&amp;quot;450&amp;quot;,&amp;quot;activate&amp;quot;:&amp;quot;onclick&amp;quot;,&amp;quot;header&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;position&amp;quot;:&amp;quot;triggerLeft&amp;quot;,&amp;quot;popoverLabel&amp;quot;:&amp;quot;Tell Us About a Lower Price&amp;quot;,&amp;quot;url&amp;quot;:&amp;quot;/gp/pdp/pf/pricingFeedbackForm.html/ref=_pfdpb?ie=UTF8&amp;amp;PREFIX=ns_5MW3EPTQTW7AT17JEYKF_&amp;amp;ASIN=B015DK94R6&amp;amp;from=product-detailencodeURI('&amp;amp;originalURI=' + window.location.pathname)&amp;quot;}" data-csa-c-id="s2dgbt-thhsnf-akh3ki-3wj1j"&gt; Would you like to  &lt;b&gt;&lt;a href="javascript:void(0)" role="button" class="a-popover-trigger a-declarative"&gt;tell us about a lower price?&lt;i class="a-icon a-icon-popover"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;
+                &lt;/span&gt; &lt;/div&gt;   &lt;/div&gt;&lt;table id="productDetails_feedback_sections" class="a-keyvalue prodDetTable" role="presentation"&gt;   &lt;/table&gt; &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;   </t>
+  </si>
+  <si>
+    <t>CamelBak-Kids-Water-Bottle-Unicorns</t>
+  </si>
+  <si>
+    <t>B015DK94R6</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/517s0UQ0NoL._AC_SL1111_.jpg</t>
   </si>
 </sst>
 </file>
@@ -350,7 +2259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:U18"/>
+  <dimension ref="A2:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -370,34 +2279,34 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>0.0</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>
@@ -405,20 +2314,20 @@
       <c r="P2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.005004678E9</v>
-      </c>
-      <c r="R2" t="n">
-        <v>28514.0</v>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -432,37 +2341,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
         <v>1</v>
@@ -470,20 +2379,20 @@
       <c r="P3" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.005004485E9</v>
-      </c>
-      <c r="R3" t="n">
-        <v>328.0</v>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
       </c>
       <c r="S3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -497,37 +2406,37 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>0.0</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
         <v>1</v>
@@ -535,20 +2444,20 @@
       <c r="P4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.005003994E9</v>
-      </c>
-      <c r="R4" t="n">
-        <v>338.0</v>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="T4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -562,37 +2471,37 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s">
         <v>1</v>
@@ -600,20 +2509,20 @@
       <c r="P5" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.005004661E9</v>
-      </c>
-      <c r="R5" t="n">
-        <v>812.0</v>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -627,37 +2536,37 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
         <v>1</v>
@@ -665,20 +2574,20 @@
       <c r="P6" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.005004669E9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>324.0</v>
+      <c r="Q6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" t="s">
+        <v>42</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -692,37 +2601,37 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O7" t="s">
         <v>1</v>
@@ -730,20 +2639,20 @@
       <c r="P7" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.005004543E9</v>
-      </c>
-      <c r="R7" t="n">
-        <v>762.0</v>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -757,37 +2666,37 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
         <v>1</v>
@@ -795,20 +2704,20 @@
       <c r="P8" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.005004654E9</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1884517.0</v>
+      <c r="Q8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" t="s">
+        <v>58</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -822,37 +2731,37 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
         <v>1</v>
@@ -860,20 +2769,20 @@
       <c r="P9" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.005004485E9</v>
-      </c>
-      <c r="R9" t="n">
-        <v>455.0</v>
+      <c r="Q9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" t="s">
+        <v>66</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -887,37 +2796,37 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
         <v>1</v>
@@ -925,20 +2834,20 @@
       <c r="P10" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.005004651E9</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1910370.0</v>
+      <c r="Q10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" t="s">
+        <v>74</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -952,37 +2861,37 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
         <v>1</v>
@@ -990,20 +2899,20 @@
       <c r="P11" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.005004669E9</v>
-      </c>
-      <c r="R11" t="n">
-        <v>591.0</v>
+      <c r="Q11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" t="s">
+        <v>82</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="T11" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="U11" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -1017,37 +2926,37 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
         <v>1</v>
@@ -1055,20 +2964,20 @@
       <c r="P12" t="s">
         <v>1</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.005004654E9</v>
-      </c>
-      <c r="R12" t="n">
-        <v>993537.0</v>
+      <c r="Q12" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" t="s">
+        <v>91</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="T12" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="U12" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -1082,37 +2991,37 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
         <v>1</v>
@@ -1120,20 +3029,20 @@
       <c r="P13" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.005004654E9</v>
-      </c>
-      <c r="R13" t="n">
-        <v>860945.0</v>
+      <c r="Q13" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" t="s">
+        <v>100</v>
       </c>
       <c r="S13" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="T13" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="U13" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -1147,37 +3056,37 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
         <v>1</v>
@@ -1185,20 +3094,20 @@
       <c r="P14" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.005004555E9</v>
-      </c>
-      <c r="R14" t="n">
-        <v>465.0</v>
+      <c r="Q14" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" t="s">
+        <v>10</v>
       </c>
       <c r="S14" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="T14" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="U14" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -1212,37 +3121,37 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>0.0</v>
       </c>
       <c r="K15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="O15" t="s">
         <v>1</v>
@@ -1250,20 +3159,20 @@
       <c r="P15" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.005004522E9</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2346735.0</v>
+      <c r="Q15" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15" t="s">
+        <v>116</v>
       </c>
       <c r="S15" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="T15" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="U15" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
@@ -1277,37 +3186,37 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="O16" t="s">
         <v>1</v>
@@ -1315,20 +3224,20 @@
       <c r="P16" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.005004671E9</v>
-      </c>
-      <c r="R16" t="n">
-        <v>28514.0</v>
+      <c r="Q16" t="s">
+        <v>123</v>
+      </c>
+      <c r="R16" t="s">
+        <v>100</v>
       </c>
       <c r="S16" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="T16" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="U16" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
@@ -1342,37 +3251,37 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
       </c>
       <c r="K17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
         <v>1</v>
@@ -1380,20 +3289,20 @@
       <c r="P17" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.005004653E9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>913411.0</v>
+      <c r="Q17" t="s">
+        <v>130</v>
+      </c>
+      <c r="R17" t="s">
+        <v>131</v>
       </c>
       <c r="S17" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="T17" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="U17" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
@@ -1407,58 +3316,448 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" t="s">
+        <v>131</v>
+      </c>
+      <c r="S18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T18" t="s">
+        <v>139</v>
+      </c>
+      <c r="U18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
         <v>6</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.005004681E9</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3117574.0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>97</v>
-      </c>
-      <c r="T18" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" t="s">
-        <v>4</v>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>145</v>
+      </c>
+      <c r="R19" t="s">
+        <v>146</v>
+      </c>
+      <c r="S19" t="s">
+        <v>147</v>
+      </c>
+      <c r="T19" t="s">
+        <v>148</v>
+      </c>
+      <c r="U19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>153</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>154</v>
+      </c>
+      <c r="R21" t="s">
+        <v>155</v>
+      </c>
+      <c r="S21" t="s">
+        <v>156</v>
+      </c>
+      <c r="T21" t="s">
+        <v>156</v>
+      </c>
+      <c r="U21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>162</v>
+      </c>
+      <c r="R22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T22" t="s">
+        <v>163</v>
+      </c>
+      <c r="U22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>169</v>
+      </c>
+      <c r="R23" t="s">
+        <v>170</v>
+      </c>
+      <c r="S23" t="s">
+        <v>171</v>
+      </c>
+      <c r="T23" t="s">
+        <v>171</v>
+      </c>
+      <c r="U23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>177</v>
+      </c>
+      <c r="R24" t="s">
+        <v>178</v>
+      </c>
+      <c r="S24" t="s">
+        <v>179</v>
+      </c>
+      <c r="T24" t="s">
+        <v>179</v>
+      </c>
+      <c r="U24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>185</v>
+      </c>
+      <c r="R25" t="s">
+        <v>186</v>
+      </c>
+      <c r="S25" t="s">
+        <v>187</v>
+      </c>
+      <c r="T25" t="s">
+        <v>187</v>
+      </c>
+      <c r="U25" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
